--- a/results/gru/dilemma/confidence/topk/sum_scores.xlsx
+++ b/results/gru/dilemma/confidence/topk/sum_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="254">
   <si>
     <t>negative</t>
   </si>
@@ -43,922 +43,733 @@
     <t>name</t>
   </si>
   <si>
+    <t>illegal</t>
+  </si>
+  <si>
     <t>drugs</t>
   </si>
   <si>
-    <t>illegal</t>
+    <t>news</t>
   </si>
   <si>
     <t>scary</t>
   </si>
   <si>
-    <t>news</t>
-  </si>
-  <si>
     <t>software</t>
   </si>
   <si>
     <t>fake</t>
   </si>
   <si>
+    <t>times</t>
+  </si>
+  <si>
+    <t>terrifying</t>
+  </si>
+  <si>
     <t>two</t>
   </si>
   <si>
+    <t>faster</t>
+  </si>
+  <si>
     <t>and</t>
   </si>
   <si>
-    <t>terrifying</t>
+    <t>.</t>
+  </si>
+  <si>
+    <t>customers</t>
   </si>
   <si>
     <t>the</t>
   </si>
   <si>
-    <t>times</t>
-  </si>
-  <si>
-    <t>.</t>
-  </si>
-  <si>
-    <t>customers</t>
+    <t>six</t>
+  </si>
+  <si>
+    <t>addicted</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>other</t>
   </si>
   <si>
     <t>edward</t>
   </si>
   <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>than</t>
+  </si>
+  <si>
+    <t>tu</t>
+  </si>
+  <si>
     <t>,</t>
   </si>
   <si>
-    <t>shit</t>
+    <t>that</t>
+  </si>
+  <si>
+    <t>twitter</t>
+  </si>
+  <si>
+    <t>worst</t>
+  </si>
+  <si>
+    <t>bad</t>
+  </si>
+  <si>
+    <t>slight</t>
   </si>
   <si>
     <t>[UNK]</t>
   </si>
   <si>
-    <t>faster</t>
-  </si>
-  <si>
-    <t>other</t>
-  </si>
-  <si>
-    <t>addicted</t>
-  </si>
-  <si>
-    <t>six</t>
-  </si>
-  <si>
-    <t>tu</t>
+    <t>truth</t>
+  </si>
+  <si>
+    <t>mit</t>
+  </si>
+  <si>
+    <t>study</t>
+  </si>
+  <si>
+    <t>imp</t>
+  </si>
+  <si>
+    <t>drama</t>
+  </si>
+  <si>
+    <t>are</t>
+  </si>
+  <si>
+    <t>:</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>crazy</t>
+  </si>
+  <si>
+    <t>guilty</t>
+  </si>
+  <si>
+    <t>industries</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>black</t>
+  </si>
+  <si>
+    <t>seriously</t>
+  </si>
+  <si>
+    <t>creepy</t>
+  </si>
+  <si>
+    <t>weird</t>
+  </si>
+  <si>
+    <t>disturbing</t>
+  </si>
+  <si>
+    <t>spreads</t>
   </si>
   <si>
     <t>is</t>
   </si>
   <si>
+    <t>sad</t>
+  </si>
+  <si>
+    <t>been</t>
+  </si>
+  <si>
+    <t>behind</t>
+  </si>
+  <si>
+    <t>film</t>
+  </si>
+  <si>
+    <t>this</t>
+  </si>
+  <si>
+    <t>an</t>
+  </si>
+  <si>
+    <t>…</t>
+  </si>
+  <si>
     <t>'</t>
   </si>
   <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>that</t>
-  </si>
-  <si>
-    <t>bad</t>
-  </si>
-  <si>
-    <t>are</t>
-  </si>
-  <si>
-    <t>behind</t>
-  </si>
-  <si>
-    <t>worst</t>
-  </si>
-  <si>
-    <t>black</t>
+    <t>gradual</t>
+  </si>
+  <si>
+    <t>holy</t>
+  </si>
+  <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>facebook</t>
+  </si>
+  <si>
+    <t>fucked</t>
+  </si>
+  <si>
+    <t>serious</t>
+  </si>
+  <si>
+    <t>on</t>
+  </si>
+  <si>
+    <t>it</t>
+  </si>
+  <si>
+    <t>refer</t>
+  </si>
+  <si>
+    <t>”</t>
+  </si>
+  <si>
+    <t>in</t>
+  </si>
+  <si>
+    <t>there</t>
+  </si>
+  <si>
+    <t>travels</t>
+  </si>
+  <si>
+    <t>shocking</t>
+  </si>
+  <si>
+    <t>being</t>
+  </si>
+  <si>
+    <t>addiction</t>
+  </si>
+  <si>
+    <t>sick</t>
+  </si>
+  <si>
+    <t>late</t>
   </si>
   <si>
     <t>phone</t>
   </si>
   <si>
-    <t>crazy</t>
-  </si>
-  <si>
-    <t>slight</t>
-  </si>
-  <si>
-    <t>imp</t>
-  </si>
-  <si>
-    <t>mit</t>
-  </si>
-  <si>
-    <t>truth</t>
-  </si>
-  <si>
-    <t>s</t>
-  </si>
-  <si>
-    <t>:</t>
-  </si>
-  <si>
-    <t>in</t>
-  </si>
-  <si>
-    <t>drama</t>
-  </si>
-  <si>
-    <t>seriously</t>
-  </si>
-  <si>
-    <t>on</t>
-  </si>
-  <si>
-    <t>it</t>
-  </si>
-  <si>
-    <t>twitter</t>
-  </si>
-  <si>
-    <t>study</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
-    <t>weird</t>
+    <t>evil</t>
+  </si>
+  <si>
+    <t>ago</t>
+  </si>
+  <si>
+    <t>netflix</t>
+  </si>
+  <si>
+    <t>—</t>
+  </si>
+  <si>
+    <t>only</t>
+  </si>
+  <si>
+    <t>th</t>
+  </si>
+  <si>
+    <t>not</t>
+  </si>
+  <si>
+    <t>boring</t>
+  </si>
+  <si>
+    <t>’</t>
+  </si>
+  <si>
+    <t>“</t>
+  </si>
+  <si>
+    <t>media</t>
+  </si>
+  <si>
+    <t>with</t>
+  </si>
+  <si>
+    <t>watch</t>
+  </si>
+  <si>
+    <t>dumb</t>
+  </si>
+  <si>
+    <t>‘</t>
+  </si>
+  <si>
+    <t>ability</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>existent</t>
+  </si>
+  <si>
+    <t>mean</t>
+  </si>
+  <si>
+    <t>at</t>
+  </si>
+  <si>
+    <t>out</t>
+  </si>
+  <si>
+    <t>wrong</t>
+  </si>
+  <si>
+    <t>mad</t>
+  </si>
+  <si>
+    <t>hell</t>
+  </si>
+  <si>
+    <t>app</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>half</t>
+  </si>
+  <si>
+    <t>white</t>
+  </si>
+  <si>
+    <t>google</t>
+  </si>
+  <si>
+    <t>silicon</t>
+  </si>
+  <si>
+    <t>these</t>
+  </si>
+  <si>
+    <t>shocked</t>
+  </si>
+  <si>
+    <t>hate</t>
+  </si>
+  <si>
+    <t>frightening</t>
+  </si>
+  <si>
+    <t>irony</t>
+  </si>
+  <si>
+    <t>con</t>
+  </si>
+  <si>
+    <t>fall</t>
+  </si>
+  <si>
+    <t>per</t>
+  </si>
+  <si>
+    <t>ignore</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>as</t>
+  </si>
+  <si>
+    <t>said</t>
+  </si>
+  <si>
+    <t>shows</t>
+  </si>
+  <si>
+    <t>know</t>
+  </si>
+  <si>
+    <t>of</t>
+  </si>
+  <si>
+    <t>found</t>
+  </si>
+  <si>
+    <t>civil</t>
+  </si>
+  <si>
+    <t>have</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>facts</t>
+  </si>
+  <si>
+    <t>travelled</t>
+  </si>
+  <si>
+    <t>to</t>
+  </si>
+  <si>
+    <t>experts</t>
+  </si>
+  <si>
+    <t>according</t>
+  </si>
+  <si>
+    <t>call</t>
+  </si>
+  <si>
+    <t>their</t>
+  </si>
+  <si>
+    <t>just</t>
+  </si>
+  <si>
+    <t>consequences</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>hmm</t>
+  </si>
+  <si>
+    <t>correction</t>
+  </si>
+  <si>
+    <t>600</t>
+  </si>
+  <si>
+    <t>horrible</t>
+  </si>
+  <si>
+    <t>"</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>billion</t>
+  </si>
+  <si>
+    <t>!</t>
+  </si>
+  <si>
+    <t>artificial</t>
+  </si>
+  <si>
+    <t>spread</t>
+  </si>
+  <si>
+    <t>behaviour</t>
+  </si>
+  <si>
+    <t>scroll</t>
+  </si>
+  <si>
+    <t>dangerous</t>
+  </si>
+  <si>
+    <t>girl</t>
+  </si>
+  <si>
+    <t>worse</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>or</t>
+  </si>
+  <si>
+    <t>each</t>
+  </si>
+  <si>
+    <t>youtube</t>
+  </si>
+  <si>
+    <t>holes</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>users</t>
+  </si>
+  <si>
+    <t>used</t>
+  </si>
+  <si>
+    <t>stomach</t>
+  </si>
+  <si>
+    <t>trump</t>
+  </si>
+  <si>
+    <t>movies</t>
+  </si>
+  <si>
+    <t>taken</t>
+  </si>
+  <si>
+    <t>college</t>
+  </si>
+  <si>
+    <t>anti</t>
+  </si>
+  <si>
+    <t>goodbye</t>
+  </si>
+  <si>
+    <t>mani</t>
+  </si>
+  <si>
+    <t>mark</t>
+  </si>
+  <si>
+    <t>apps</t>
+  </si>
+  <si>
+    <t>random</t>
+  </si>
+  <si>
+    <t>yesterday</t>
+  </si>
+  <si>
+    <t>didn</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>confusing</t>
+  </si>
+  <si>
+    <t>hours</t>
+  </si>
+  <si>
+    <t>crap</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>all</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>blown</t>
+  </si>
+  <si>
+    <t>conspiracy</t>
+  </si>
+  <si>
+    <t>your</t>
+  </si>
+  <si>
+    <t>perception</t>
+  </si>
+  <si>
+    <t>internet</t>
+  </si>
+  <si>
+    <t>saw</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>opening</t>
+  </si>
+  <si>
+    <t>definitely</t>
+  </si>
+  <si>
+    <t>around</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>least</t>
+  </si>
+  <si>
+    <t>notification</t>
+  </si>
+  <si>
+    <t>feel</t>
+  </si>
+  <si>
+    <t>even</t>
+  </si>
+  <si>
+    <t>algorithms</t>
   </si>
   <si>
     <t>am</t>
   </si>
   <si>
-    <t>industries</t>
-  </si>
-  <si>
-    <t>th</t>
-  </si>
-  <si>
-    <t>?</t>
-  </si>
-  <si>
-    <t>to</t>
-  </si>
-  <si>
-    <t>gradual</t>
-  </si>
-  <si>
-    <t>netflix</t>
-  </si>
-  <si>
-    <t>holy</t>
-  </si>
-  <si>
-    <t>disturbing</t>
-  </si>
-  <si>
-    <t>refer</t>
-  </si>
-  <si>
-    <t>there</t>
-  </si>
-  <si>
-    <t>users</t>
-  </si>
-  <si>
-    <t>than</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>an</t>
-  </si>
-  <si>
-    <t>re</t>
-  </si>
-  <si>
-    <t>existent</t>
-  </si>
-  <si>
-    <t>wrong</t>
-  </si>
-  <si>
-    <t>ago</t>
-  </si>
-  <si>
-    <t>serious</t>
-  </si>
-  <si>
-    <t>film</t>
-  </si>
-  <si>
-    <t>long</t>
-  </si>
-  <si>
-    <t>spreads</t>
-  </si>
-  <si>
-    <t>this</t>
-  </si>
-  <si>
-    <t>’</t>
-  </si>
-  <si>
-    <t>dumb</t>
-  </si>
-  <si>
-    <t>shocking</t>
-  </si>
-  <si>
-    <t>sad</t>
-  </si>
-  <si>
-    <t>hell</t>
-  </si>
-  <si>
-    <t>guilty</t>
-  </si>
-  <si>
-    <t>creepy</t>
-  </si>
-  <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>facebook</t>
+    <t>&amp;</t>
+  </si>
+  <si>
+    <t>amp</t>
+  </si>
+  <si>
+    <t>from</t>
   </si>
   <si>
     <t>down</t>
   </si>
   <si>
-    <t>who</t>
-  </si>
-  <si>
-    <t>not</t>
-  </si>
-  <si>
-    <t>con</t>
-  </si>
-  <si>
-    <t>t</t>
-  </si>
-  <si>
-    <t>white</t>
-  </si>
-  <si>
-    <t>civil</t>
-  </si>
-  <si>
-    <t>addict</t>
-  </si>
-  <si>
-    <t>internet</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>for</t>
-  </si>
-  <si>
-    <t>change</t>
-  </si>
-  <si>
-    <t>behaviour</t>
-  </si>
-  <si>
-    <t>perception</t>
-  </si>
-  <si>
-    <t>mean</t>
-  </si>
-  <si>
-    <t>or</t>
-  </si>
-  <si>
-    <t>been</t>
-  </si>
-  <si>
-    <t>out</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>hate</t>
-  </si>
-  <si>
-    <t>silicon</t>
-  </si>
-  <si>
-    <t>past</t>
-  </si>
-  <si>
-    <t>little</t>
-  </si>
-  <si>
-    <t>propaganda</t>
-  </si>
-  <si>
-    <t>fucked</t>
-  </si>
-  <si>
-    <t>at</t>
-  </si>
-  <si>
-    <t>media</t>
-  </si>
-  <si>
-    <t>—</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>boring</t>
-  </si>
-  <si>
-    <t>all</t>
-  </si>
-  <si>
-    <t>‘</t>
-  </si>
-  <si>
-    <t>some</t>
-  </si>
-  <si>
-    <t>“</t>
-  </si>
-  <si>
-    <t>consequences</t>
-  </si>
-  <si>
-    <t>must</t>
-  </si>
-  <si>
-    <t>according</t>
-  </si>
-  <si>
-    <t>real</t>
-  </si>
-  <si>
-    <t>say</t>
-  </si>
-  <si>
-    <t>travels</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>being</t>
-  </si>
-  <si>
-    <t>threat</t>
-  </si>
-  <si>
-    <t>when</t>
-  </si>
-  <si>
-    <t>sick</t>
-  </si>
-  <si>
-    <t>my</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>men</t>
-  </si>
-  <si>
-    <t>few</t>
-  </si>
-  <si>
-    <t>conspiracy</t>
-  </si>
-  <si>
-    <t>late</t>
-  </si>
-  <si>
-    <t>evil</t>
-  </si>
-  <si>
-    <t>insane</t>
-  </si>
-  <si>
-    <t>these</t>
-  </si>
-  <si>
-    <t>after</t>
-  </si>
-  <si>
-    <t>shocked</t>
-  </si>
-  <si>
-    <t>*</t>
-  </si>
-  <si>
-    <t>frightening</t>
-  </si>
-  <si>
-    <t>”</t>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>more</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>much</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>own</t>
+  </si>
+  <si>
+    <t>has</t>
+  </si>
+  <si>
+    <t>its</t>
+  </si>
+  <si>
+    <t>tool</t>
+  </si>
+  <si>
+    <t>goals</t>
   </si>
   <si>
     <t>social</t>
   </si>
   <si>
-    <t>only</t>
-  </si>
-  <si>
-    <t>fall</t>
-  </si>
-  <si>
-    <t>per</t>
-  </si>
-  <si>
-    <t>ignore</t>
-  </si>
-  <si>
-    <t>"</t>
-  </si>
-  <si>
-    <t>screwed</t>
-  </si>
-  <si>
-    <t>inc</t>
-  </si>
-  <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>put</t>
-  </si>
-  <si>
-    <t>snap</t>
-  </si>
-  <si>
-    <t>d</t>
-  </si>
-  <si>
-    <t>lynch</t>
-  </si>
-  <si>
-    <t>mob</t>
-  </si>
-  <si>
-    <t>censorship</t>
-  </si>
-  <si>
-    <t>their</t>
-  </si>
-  <si>
-    <t>just</t>
-  </si>
-  <si>
-    <t>documentary</t>
-  </si>
-  <si>
-    <t>racist</t>
-  </si>
-  <si>
-    <t>ass</t>
-  </si>
-  <si>
-    <t>dynamite</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>awareness</t>
-  </si>
-  <si>
-    <t>experts</t>
-  </si>
-  <si>
-    <t>doc</t>
-  </si>
-  <si>
-    <t>watch</t>
-  </si>
-  <si>
-    <t>artificial</t>
-  </si>
-  <si>
-    <t>intelligence</t>
-  </si>
-  <si>
-    <t>term</t>
-  </si>
-  <si>
-    <t>ya</t>
-  </si>
-  <si>
-    <t>we</t>
-  </si>
-  <si>
-    <t>know</t>
+    <t>show</t>
+  </si>
+  <si>
+    <t>worth</t>
+  </si>
+  <si>
+    <t>isn</t>
+  </si>
+  <si>
+    <t>waiting</t>
+  </si>
+  <si>
+    <t>means</t>
+  </si>
+  <si>
+    <t>most</t>
+  </si>
+  <si>
+    <t>advanced</t>
+  </si>
+  <si>
+    <t>using</t>
+  </si>
+  <si>
+    <t>first</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>glad</t>
+  </si>
+  <si>
+    <t>pursuing</t>
+  </si>
+  <si>
+    <t>besides</t>
+  </si>
+  <si>
+    <t>very</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>dilemma</t>
   </si>
   <si>
     <t>friends</t>
   </si>
   <si>
-    <t>sm</t>
-  </si>
-  <si>
-    <t>billion</t>
-  </si>
-  <si>
-    <t>!</t>
-  </si>
-  <si>
-    <t>fox</t>
-  </si>
-  <si>
-    <t>bits</t>
-  </si>
-  <si>
-    <t>director</t>
-  </si>
-  <si>
-    <t>stupid</t>
-  </si>
-  <si>
-    <t>ability</t>
-  </si>
-  <si>
-    <t>regulations</t>
-  </si>
-  <si>
-    <t>legitimate</t>
-  </si>
-  <si>
-    <t>mo</t>
-  </si>
-  <si>
-    <t>youtube</t>
-  </si>
-  <si>
-    <t>holes</t>
-  </si>
-  <si>
-    <t>felt</t>
-  </si>
-  <si>
-    <t>scroll</t>
-  </si>
-  <si>
-    <t>destroying</t>
-  </si>
-  <si>
-    <t>worse</t>
-  </si>
-  <si>
-    <t>wr</t>
-  </si>
-  <si>
-    <t>of</t>
-  </si>
-  <si>
-    <t>as</t>
-  </si>
-  <si>
-    <t>me</t>
-  </si>
-  <si>
-    <t>stomach</t>
-  </si>
-  <si>
-    <t>don</t>
-  </si>
-  <si>
-    <t>them</t>
-  </si>
-  <si>
-    <t>too</t>
-  </si>
-  <si>
-    <t>gives</t>
-  </si>
-  <si>
-    <t>mad</t>
-  </si>
-  <si>
-    <t>campbell</t>
-  </si>
-  <si>
-    <t>pu</t>
-  </si>
-  <si>
-    <t>around</t>
-  </si>
-  <si>
-    <t>platforms</t>
-  </si>
-  <si>
-    <t>theories</t>
-  </si>
-  <si>
-    <t>trump</t>
-  </si>
-  <si>
-    <t>college</t>
-  </si>
-  <si>
-    <t>app</t>
-  </si>
-  <si>
-    <t>mani</t>
-  </si>
-  <si>
-    <t>facts</t>
-  </si>
-  <si>
-    <t>fear</t>
-  </si>
-  <si>
-    <t>sorry</t>
-  </si>
-  <si>
-    <t>hole</t>
-  </si>
-  <si>
-    <t>guy</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>game</t>
-  </si>
-  <si>
-    <t>google</t>
-  </si>
-  <si>
-    <t>random</t>
-  </si>
-  <si>
-    <t>&amp;</t>
-  </si>
-  <si>
-    <t>confusing</t>
-  </si>
-  <si>
-    <t>crap</t>
-  </si>
-  <si>
-    <t>eye</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>half</t>
-  </si>
-  <si>
-    <t>until</t>
-  </si>
-  <si>
-    <t>seem</t>
-  </si>
-  <si>
-    <t>spend</t>
-  </si>
-  <si>
-    <t>hours</t>
-  </si>
-  <si>
-    <t>tb</t>
-  </si>
-  <si>
-    <t>point</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>live</t>
-  </si>
-  <si>
-    <t>mon</t>
-  </si>
-  <si>
-    <t>addiction</t>
-  </si>
-  <si>
-    <t>y</t>
-  </si>
-  <si>
-    <t>with</t>
-  </si>
-  <si>
-    <t>away</t>
-  </si>
-  <si>
-    <t>pan</t>
-  </si>
-  <si>
-    <t>…</t>
-  </si>
-  <si>
-    <t>blown</t>
-  </si>
-  <si>
-    <t>manipulation</t>
-  </si>
-  <si>
-    <t>use</t>
-  </si>
-  <si>
-    <t>apps</t>
-  </si>
-  <si>
-    <t>suicide</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>kids</t>
-  </si>
-  <si>
-    <t>every</t>
-  </si>
-  <si>
-    <t>human</t>
-  </si>
-  <si>
-    <t>mirror</t>
-  </si>
-  <si>
-    <t>said</t>
-  </si>
-  <si>
-    <t>control</t>
-  </si>
-  <si>
-    <t>extremely</t>
-  </si>
-  <si>
-    <t>scared</t>
-  </si>
-  <si>
-    <t>saw</t>
-  </si>
-  <si>
-    <t>brilliant</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>m</t>
-  </si>
-  <si>
-    <t>into</t>
-  </si>
-  <si>
-    <t>chilling</t>
-  </si>
-  <si>
-    <t>matrix</t>
-  </si>
-  <si>
-    <t>definitely</t>
-  </si>
-  <si>
-    <t>algorithms</t>
-  </si>
-  <si>
-    <t>least</t>
-  </si>
-  <si>
-    <t>dark</t>
-  </si>
-  <si>
-    <t>take</t>
-  </si>
-  <si>
-    <t>stuff</t>
-  </si>
-  <si>
-    <t>insight</t>
-  </si>
-  <si>
-    <t>side</t>
-  </si>
-  <si>
-    <t>i</t>
-  </si>
-  <si>
-    <t>notification</t>
-  </si>
-  <si>
-    <t>about</t>
-  </si>
-  <si>
-    <t>amp</t>
-  </si>
-  <si>
-    <t>irony</t>
-  </si>
-  <si>
-    <t>ho</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>more</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>own</t>
-  </si>
-  <si>
-    <t>its</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>much</t>
-  </si>
-  <si>
-    <t>waiting</t>
-  </si>
-  <si>
-    <t>has</t>
-  </si>
-  <si>
-    <t>goals</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>worth</t>
-  </si>
-  <si>
-    <t>tool</t>
-  </si>
-  <si>
-    <t>means</t>
-  </si>
-  <si>
-    <t>most</t>
-  </si>
-  <si>
-    <t>user</t>
-  </si>
-  <si>
-    <t>show</t>
-  </si>
-  <si>
-    <t>be</t>
-  </si>
-  <si>
-    <t>pursuing</t>
-  </si>
-  <si>
-    <t>where</t>
-  </si>
-  <si>
-    <t>dilemma</t>
-  </si>
-  <si>
-    <t>your</t>
-  </si>
-  <si>
     <t>family</t>
   </si>
   <si>
-    <t>advanced</t>
-  </si>
-  <si>
     <t>many</t>
   </si>
   <si>
-    <t>now</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>using</t>
-  </si>
-  <si>
     <t>think</t>
   </si>
   <si>
-    <t>/</t>
+    <t>thing</t>
+  </si>
+  <si>
+    <t>what</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>does</t>
+  </si>
+  <si>
+    <t>goal</t>
+  </si>
+  <si>
+    <t>off</t>
+  </si>
+  <si>
+    <t>really</t>
   </si>
   <si>
     <t>best</t>
   </si>
   <si>
-    <t>glad</t>
+    <t>•</t>
+  </si>
+  <si>
+    <t>listen</t>
   </si>
   <si>
     <t>interesting</t>
@@ -1322,7 +1133,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q277"/>
+  <dimension ref="A1:Q203"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1333,7 +1144,7 @@
         <v>0</v>
       </c>
       <c r="J1" t="s">
-        <v>283</v>
+        <v>210</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -1391,13 +1202,13 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>0.05930232558139535</v>
+        <v>0.07262164124909223</v>
       </c>
       <c r="C3">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D3">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -1412,16 +1223,16 @@
         <v>4</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>284</v>
+        <v>211</v>
       </c>
       <c r="K3">
-        <v>0.1838235294117647</v>
+        <v>0.1578947368421053</v>
       </c>
       <c r="L3">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="M3">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -1433,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1441,13 +1252,13 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>0.05813953488372093</v>
+        <v>0.06971677559912855</v>
       </c>
       <c r="C4">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D4">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -1459,19 +1270,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>285</v>
+        <v>212</v>
       </c>
       <c r="K4">
-        <v>0.125</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="L4">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M4">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -1483,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1491,13 +1302,13 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>0.05523255813953488</v>
+        <v>0.06753812636165578</v>
       </c>
       <c r="C5">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D5">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -1509,19 +1320,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>286</v>
+        <v>213</v>
       </c>
       <c r="K5">
-        <v>0.05147058823529412</v>
+        <v>0.04678362573099415</v>
       </c>
       <c r="L5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -1533,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>30</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1541,13 +1352,13 @@
         <v>12</v>
       </c>
       <c r="B6">
-        <v>0.04941860465116279</v>
+        <v>0.06681190994916485</v>
       </c>
       <c r="C6">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="D6">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -1559,19 +1370,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>287</v>
+        <v>214</v>
       </c>
       <c r="K6">
-        <v>0.04411764705882353</v>
+        <v>0.04093567251461988</v>
       </c>
       <c r="L6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -1583,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>55</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1591,13 +1402,13 @@
         <v>13</v>
       </c>
       <c r="B7">
-        <v>0.04186046511627907</v>
+        <v>0.05010893246187364</v>
       </c>
       <c r="C7">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D7">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -1609,19 +1420,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>288</v>
+        <v>215</v>
       </c>
       <c r="K7">
-        <v>0.04411764705882353</v>
+        <v>0.04093567251461988</v>
       </c>
       <c r="L7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -1633,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>69</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1641,13 +1452,13 @@
         <v>14</v>
       </c>
       <c r="B8">
-        <v>0.0377906976744186</v>
+        <v>0.05010893246187364</v>
       </c>
       <c r="C8">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D8">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -1659,31 +1470,31 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>149</v>
+        <v>216</v>
       </c>
       <c r="K8">
-        <v>0.02941176470588235</v>
+        <v>0.03508771929824561</v>
       </c>
       <c r="L8">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M8">
         <v>6</v>
       </c>
       <c r="N8">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0.6699999999999999</v>
+        <v>1</v>
       </c>
       <c r="P8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>1092</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1691,13 +1502,13 @@
         <v>15</v>
       </c>
       <c r="B9">
-        <v>0.03662790697674419</v>
+        <v>0.02904865649963689</v>
       </c>
       <c r="C9">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="D9">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -1709,31 +1520,31 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>289</v>
+        <v>148</v>
       </c>
       <c r="K9">
-        <v>0.02941176470588235</v>
+        <v>0.02923976608187134</v>
       </c>
       <c r="L9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M9">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="O9">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="P9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q9">
-        <v>61</v>
+        <v>339</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1741,13 +1552,13 @@
         <v>16</v>
       </c>
       <c r="B10">
-        <v>0.03023255813953488</v>
+        <v>0.02832244008714597</v>
       </c>
       <c r="C10">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="D10">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -1759,31 +1570,31 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>994</v>
+        <v>27</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>154</v>
+        <v>73</v>
       </c>
       <c r="K10">
-        <v>0.02205882352941177</v>
+        <v>0.02923976608187134</v>
       </c>
       <c r="L10">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M10">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="N10">
-        <v>0.25</v>
+        <v>0.38</v>
       </c>
       <c r="O10">
-        <v>0.75</v>
+        <v>0.62</v>
       </c>
       <c r="P10" t="b">
         <v>1</v>
       </c>
       <c r="Q10">
-        <v>341</v>
+        <v>954</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1791,13 +1602,13 @@
         <v>17</v>
       </c>
       <c r="B11">
-        <v>0.02674418604651163</v>
+        <v>0.02759622367465505</v>
       </c>
       <c r="C11">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D11">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -1809,31 +1620,31 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>290</v>
+        <v>95</v>
       </c>
       <c r="K11">
-        <v>0.02205882352941177</v>
+        <v>0.02339181286549707</v>
       </c>
       <c r="L11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M11">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="O11">
-        <v>1</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="P11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q11">
-        <v>3</v>
+        <v>658</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1841,37 +1652,37 @@
         <v>18</v>
       </c>
       <c r="B12">
-        <v>0.02034883720930233</v>
+        <v>0.02178649237472767</v>
       </c>
       <c r="C12">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D12">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E12">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="G12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12">
-        <v>3892</v>
+        <v>24</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>291</v>
+        <v>217</v>
       </c>
       <c r="K12">
-        <v>0.02205882352941177</v>
+        <v>0.02339181286549707</v>
       </c>
       <c r="L12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -1883,7 +1694,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1891,13 +1702,13 @@
         <v>19</v>
       </c>
       <c r="B13">
-        <v>0.02034883720930233</v>
+        <v>0.02033405954974582</v>
       </c>
       <c r="C13">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="D13">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -1909,19 +1720,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>28</v>
+        <v>1018</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>292</v>
+        <v>218</v>
       </c>
       <c r="K13">
-        <v>0.02205882352941177</v>
+        <v>0.02339181286549707</v>
       </c>
       <c r="L13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -1933,7 +1744,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>2</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1941,49 +1752,49 @@
         <v>20</v>
       </c>
       <c r="B14">
-        <v>0.01802325581395349</v>
+        <v>0.01670297748729121</v>
       </c>
       <c r="C14">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D14">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E14">
-        <v>0.97</v>
+        <v>0.85</v>
       </c>
       <c r="F14">
-        <v>0.03000000000000003</v>
+        <v>0.15</v>
       </c>
       <c r="G14" t="b">
         <v>1</v>
       </c>
       <c r="H14">
-        <v>2756</v>
+        <v>2761</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>293</v>
+        <v>20</v>
       </c>
       <c r="K14">
-        <v>0.02205882352941177</v>
+        <v>0.02339181286549707</v>
       </c>
       <c r="L14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M14">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.85</v>
       </c>
       <c r="O14">
-        <v>1</v>
+        <v>0.15</v>
       </c>
       <c r="P14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q14">
-        <v>47</v>
+        <v>2761</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1991,13 +1802,13 @@
         <v>21</v>
       </c>
       <c r="B15">
-        <v>0.01569767441860465</v>
+        <v>0.01597676107480029</v>
       </c>
       <c r="C15">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D15">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -2009,31 +1820,31 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>294</v>
+        <v>136</v>
       </c>
       <c r="K15">
-        <v>0.02205882352941177</v>
+        <v>0.02339181286549707</v>
       </c>
       <c r="L15">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M15">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="O15">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="P15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q15">
-        <v>33</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -2041,49 +1852,49 @@
         <v>22</v>
       </c>
       <c r="B16">
-        <v>0.01511627906976744</v>
+        <v>0.01597676107480029</v>
       </c>
       <c r="C16">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D16">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16">
-        <v>22</v>
+        <v>3905</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>116</v>
+        <v>219</v>
       </c>
       <c r="K16">
-        <v>0.01470588235294118</v>
+        <v>0.01754385964912281</v>
       </c>
       <c r="L16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M16">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N16">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="P16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>659</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -2091,13 +1902,13 @@
         <v>23</v>
       </c>
       <c r="B17">
-        <v>0.01453488372093023</v>
+        <v>0.01379811183732752</v>
       </c>
       <c r="C17">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D17">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -2109,19 +1920,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>1122</v>
+        <v>8</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>295</v>
+        <v>220</v>
       </c>
       <c r="K17">
-        <v>0.01470588235294118</v>
+        <v>0.01754385964912281</v>
       </c>
       <c r="L17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -2133,7 +1944,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -2141,13 +1952,13 @@
         <v>24</v>
       </c>
       <c r="B18">
-        <v>0.01395348837209302</v>
+        <v>0.01379811183732752</v>
       </c>
       <c r="C18">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D18">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -2159,31 +1970,31 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>46</v>
+        <v>221</v>
       </c>
       <c r="K18">
-        <v>0.01470588235294118</v>
+        <v>0.01754385964912281</v>
       </c>
       <c r="L18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M18">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="N18">
-        <v>0.83</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0.17</v>
+        <v>1</v>
       </c>
       <c r="P18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>596</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -2191,49 +2002,49 @@
         <v>25</v>
       </c>
       <c r="B19">
-        <v>0.01337209302325581</v>
+        <v>0.0130718954248366</v>
       </c>
       <c r="C19">
+        <v>18</v>
+      </c>
+      <c r="D19">
+        <v>18</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19" t="b">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>11</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="K19">
+        <v>0.01754385964912281</v>
+      </c>
+      <c r="L19">
+        <v>3</v>
+      </c>
+      <c r="M19">
+        <v>3</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>1</v>
+      </c>
+      <c r="P19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q19">
         <v>23</v>
-      </c>
-      <c r="D19">
-        <v>23</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>276</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="K19">
-        <v>0.01470588235294118</v>
-      </c>
-      <c r="L19">
-        <v>2</v>
-      </c>
-      <c r="M19">
-        <v>8</v>
-      </c>
-      <c r="N19">
-        <v>0.75</v>
-      </c>
-      <c r="O19">
-        <v>0.25</v>
-      </c>
-      <c r="P19" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q19">
-        <v>1093</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -2241,13 +2052,13 @@
         <v>26</v>
       </c>
       <c r="B20">
-        <v>0.0122093023255814</v>
+        <v>0.0130718954248366</v>
       </c>
       <c r="C20">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D20">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -2259,31 +2070,31 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>52</v>
+        <v>190</v>
       </c>
       <c r="K20">
-        <v>0.01470588235294118</v>
+        <v>0.01754385964912281</v>
       </c>
       <c r="L20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M20">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="N20">
-        <v>0.8</v>
+        <v>0.25</v>
       </c>
       <c r="O20">
-        <v>0.2</v>
+        <v>0.75</v>
       </c>
       <c r="P20" t="b">
         <v>1</v>
       </c>
       <c r="Q20">
-        <v>952</v>
+        <v>165</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -2291,13 +2102,13 @@
         <v>27</v>
       </c>
       <c r="B21">
-        <v>0.01162790697674419</v>
+        <v>0.01234567901234568</v>
       </c>
       <c r="C21">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D21">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -2309,19 +2120,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>296</v>
+        <v>223</v>
       </c>
       <c r="K21">
-        <v>0.01470588235294118</v>
+        <v>0.01754385964912281</v>
       </c>
       <c r="L21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -2333,7 +2144,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>1</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -2341,13 +2152,13 @@
         <v>28</v>
       </c>
       <c r="B22">
-        <v>0.01162790697674419</v>
+        <v>0.01234567901234568</v>
       </c>
       <c r="C22">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D22">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -2359,31 +2170,31 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>34</v>
+        <v>224</v>
       </c>
       <c r="K22">
-        <v>0.01470588235294118</v>
+        <v>0.01169590643274854</v>
       </c>
       <c r="L22">
         <v>2</v>
       </c>
       <c r="M22">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="N22">
-        <v>0.87</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0.13</v>
+        <v>1</v>
       </c>
       <c r="P22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>535</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -2391,13 +2202,13 @@
         <v>29</v>
       </c>
       <c r="B23">
-        <v>0.009883720930232558</v>
+        <v>0.01089324618736384</v>
       </c>
       <c r="C23">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D23">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -2409,31 +2220,31 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>10</v>
+        <v>74</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>297</v>
+        <v>65</v>
       </c>
       <c r="K23">
-        <v>0.01470588235294118</v>
+        <v>0.01169590643274854</v>
       </c>
       <c r="L23">
         <v>2</v>
       </c>
       <c r="M23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="O23">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="P23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q23">
-        <v>62</v>
+        <v>727</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -2441,13 +2252,13 @@
         <v>30</v>
       </c>
       <c r="B24">
-        <v>0.009302325581395349</v>
+        <v>0.01016702977487291</v>
       </c>
       <c r="C24">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D24">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -2459,13 +2270,13 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>298</v>
+        <v>225</v>
       </c>
       <c r="K24">
-        <v>0.01470588235294118</v>
+        <v>0.01169590643274854</v>
       </c>
       <c r="L24">
         <v>2</v>
@@ -2483,7 +2294,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -2491,13 +2302,13 @@
         <v>31</v>
       </c>
       <c r="B25">
-        <v>0.008720930232558139</v>
+        <v>0.01016702977487291</v>
       </c>
       <c r="C25">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D25">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -2509,13 +2320,13 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>941</v>
+        <v>1133</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>299</v>
+        <v>226</v>
       </c>
       <c r="K25">
-        <v>0.01470588235294118</v>
+        <v>0.01169590643274854</v>
       </c>
       <c r="L25">
         <v>2</v>
@@ -2533,7 +2344,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>24</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -2541,49 +2352,49 @@
         <v>32</v>
       </c>
       <c r="B26">
-        <v>0.00813953488372093</v>
+        <v>0.008714596949891068</v>
       </c>
       <c r="C26">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D26">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E26">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="F26">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="G26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26">
-        <v>718</v>
+        <v>538</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="K26">
-        <v>0.007352941176470588</v>
+        <v>0.01169590643274854</v>
       </c>
       <c r="L26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M26">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="N26">
-        <v>0.93</v>
+        <v>0.67</v>
       </c>
       <c r="O26">
-        <v>0.06999999999999995</v>
+        <v>0.33</v>
       </c>
       <c r="P26" t="b">
         <v>1</v>
       </c>
       <c r="Q26">
-        <v>718</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -2591,13 +2402,13 @@
         <v>33</v>
       </c>
       <c r="B27">
-        <v>0.00813953488372093</v>
+        <v>0.008714596949891068</v>
       </c>
       <c r="C27">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D27">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -2609,31 +2420,31 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>15</v>
+        <v>125</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>300</v>
+        <v>129</v>
       </c>
       <c r="K27">
-        <v>0.007352941176470588</v>
+        <v>0.01169590643274854</v>
       </c>
       <c r="L27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N27">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="O27">
-        <v>1</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="P27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q27">
-        <v>197</v>
+        <v>709</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2641,49 +2452,49 @@
         <v>34</v>
       </c>
       <c r="B28">
-        <v>0.007558139534883721</v>
+        <v>0.008714596949891068</v>
       </c>
       <c r="C28">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D28">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E28">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="F28">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="G28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H28">
-        <v>535</v>
+        <v>18</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>200</v>
+        <v>227</v>
       </c>
       <c r="K28">
-        <v>0.007352941176470588</v>
+        <v>0.01169590643274854</v>
       </c>
       <c r="L28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M28">
         <v>2</v>
       </c>
       <c r="N28">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="O28">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="P28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q28">
-        <v>710</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2691,13 +2502,13 @@
         <v>35</v>
       </c>
       <c r="B29">
-        <v>0.007558139534883721</v>
+        <v>0.007988380537400145</v>
       </c>
       <c r="C29">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D29">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -2709,19 +2520,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>301</v>
+        <v>228</v>
       </c>
       <c r="K29">
-        <v>0.007352941176470588</v>
+        <v>0.01169590643274854</v>
       </c>
       <c r="L29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N29">
         <v>0</v>
@@ -2733,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2741,13 +2552,13 @@
         <v>36</v>
       </c>
       <c r="B30">
-        <v>0.006976744186046512</v>
+        <v>0.007988380537400145</v>
       </c>
       <c r="C30">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D30">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -2759,31 +2570,31 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>437</v>
+        <v>5</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>70</v>
+        <v>229</v>
       </c>
       <c r="K30">
-        <v>0.007352941176470588</v>
+        <v>0.01169590643274854</v>
       </c>
       <c r="L30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M30">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="N30">
-        <v>0.83</v>
+        <v>0</v>
       </c>
       <c r="O30">
-        <v>0.17</v>
+        <v>1</v>
       </c>
       <c r="P30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q30">
-        <v>872</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2791,13 +2602,13 @@
         <v>37</v>
       </c>
       <c r="B31">
-        <v>0.006976744186046512</v>
+        <v>0.007262164124909223</v>
       </c>
       <c r="C31">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D31">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -2809,31 +2620,31 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>14</v>
+        <v>289</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>81</v>
+        <v>230</v>
       </c>
       <c r="K31">
-        <v>0.007352941176470588</v>
+        <v>0.01169590643274854</v>
       </c>
       <c r="L31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M31">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N31">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="O31">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="P31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q31">
-        <v>776</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2841,13 +2652,13 @@
         <v>38</v>
       </c>
       <c r="B32">
-        <v>0.006976744186046512</v>
+        <v>0.006535947712418301</v>
       </c>
       <c r="C32">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D32">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -2859,31 +2670,31 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>210</v>
+        <v>231</v>
       </c>
       <c r="K32">
-        <v>0.007352941176470588</v>
+        <v>0.01169590643274854</v>
       </c>
       <c r="L32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M32">
         <v>2</v>
       </c>
       <c r="N32">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="O32">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="P32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q32">
-        <v>3</v>
+        <v>27</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2891,13 +2702,13 @@
         <v>39</v>
       </c>
       <c r="B33">
-        <v>0.006976744186046512</v>
+        <v>0.005809731299927378</v>
       </c>
       <c r="C33">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D33">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E33">
         <v>1</v>
@@ -2909,19 +2720,19 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>302</v>
+        <v>232</v>
       </c>
       <c r="K33">
-        <v>0.007352941176470588</v>
+        <v>0.01169590643274854</v>
       </c>
       <c r="L33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N33">
         <v>0</v>
@@ -2933,7 +2744,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>23</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2941,13 +2752,13 @@
         <v>40</v>
       </c>
       <c r="B34">
-        <v>0.006976744186046512</v>
+        <v>0.005809731299927378</v>
       </c>
       <c r="C34">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D34">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E34">
         <v>1</v>
@@ -2959,31 +2770,31 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>59</v>
+        <v>8</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>174</v>
+        <v>233</v>
       </c>
       <c r="K34">
-        <v>0.007352941176470588</v>
+        <v>0.005847953216374269</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N34">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="O34">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="P34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q34">
-        <v>614</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2991,13 +2802,13 @@
         <v>41</v>
       </c>
       <c r="B35">
-        <v>0.006976744186046512</v>
+        <v>0.005809731299927378</v>
       </c>
       <c r="C35">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D35">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E35">
         <v>1</v>
@@ -3009,31 +2820,31 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>18</v>
+        <v>91</v>
       </c>
       <c r="K35">
-        <v>0.007352941176470588</v>
+        <v>0.005847953216374269</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="N35">
-        <v>0.97</v>
+        <v>0.67</v>
       </c>
       <c r="O35">
-        <v>0.03000000000000003</v>
+        <v>0.33</v>
       </c>
       <c r="P35" t="b">
         <v>1</v>
       </c>
       <c r="Q35">
-        <v>3892</v>
+        <v>237</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -3041,13 +2852,13 @@
         <v>42</v>
       </c>
       <c r="B36">
-        <v>0.006395348837209302</v>
+        <v>0.005809731299927378</v>
       </c>
       <c r="C36">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D36">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E36">
         <v>1</v>
@@ -3059,31 +2870,31 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>303</v>
+        <v>143</v>
       </c>
       <c r="K36">
-        <v>0.007352941176470588</v>
+        <v>0.005847953216374269</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N36">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="O36">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="P36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q36">
-        <v>314</v>
+        <v>876</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -3091,13 +2902,13 @@
         <v>43</v>
       </c>
       <c r="B37">
-        <v>0.006395348837209302</v>
+        <v>0.005083514887436456</v>
       </c>
       <c r="C37">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D37">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E37">
         <v>1</v>
@@ -3109,13 +2920,13 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>10</v>
+        <v>442</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>304</v>
+        <v>234</v>
       </c>
       <c r="K37">
-        <v>0.007352941176470588</v>
+        <v>0.005847953216374269</v>
       </c>
       <c r="L37">
         <v>1</v>
@@ -3133,7 +2944,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>168</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -3141,13 +2952,13 @@
         <v>44</v>
       </c>
       <c r="B38">
-        <v>0.005813953488372093</v>
+        <v>0.005083514887436456</v>
       </c>
       <c r="C38">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D38">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E38">
         <v>1</v>
@@ -3159,31 +2970,31 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>3</v>
+        <v>207</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>181</v>
+        <v>235</v>
       </c>
       <c r="K38">
-        <v>0.007352941176470588</v>
+        <v>0.005847953216374269</v>
       </c>
       <c r="L38">
         <v>1</v>
       </c>
       <c r="M38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N38">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="O38">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="P38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q38">
-        <v>10</v>
+        <v>90</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -3191,13 +3002,13 @@
         <v>45</v>
       </c>
       <c r="B39">
-        <v>0.005813953488372093</v>
+        <v>0.005083514887436456</v>
       </c>
       <c r="C39">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D39">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E39">
         <v>1</v>
@@ -3209,13 +3020,13 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>305</v>
+        <v>236</v>
       </c>
       <c r="K39">
-        <v>0.007352941176470588</v>
+        <v>0.005847953216374269</v>
       </c>
       <c r="L39">
         <v>1</v>
@@ -3233,7 +3044,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>13</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -3241,49 +3052,49 @@
         <v>46</v>
       </c>
       <c r="B40">
-        <v>0.005813953488372093</v>
+        <v>0.005083514887436456</v>
       </c>
       <c r="C40">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D40">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E40">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="F40">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="G40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H40">
-        <v>596</v>
+        <v>601</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>206</v>
+        <v>22</v>
       </c>
       <c r="K40">
-        <v>0.007352941176470588</v>
+        <v>0.005847953216374269</v>
       </c>
       <c r="L40">
         <v>1</v>
       </c>
       <c r="M40">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="N40">
-        <v>0.5</v>
+        <v>0.96</v>
       </c>
       <c r="O40">
-        <v>0.5</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P40" t="b">
         <v>1</v>
       </c>
       <c r="Q40">
-        <v>37</v>
+        <v>3905</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -3291,13 +3102,13 @@
         <v>47</v>
       </c>
       <c r="B41">
-        <v>0.005232558139534884</v>
+        <v>0.005083514887436456</v>
       </c>
       <c r="C41">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D41">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E41">
         <v>1</v>
@@ -3309,13 +3120,13 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>205</v>
+        <v>28</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>306</v>
+        <v>237</v>
       </c>
       <c r="K41">
-        <v>0.007352941176470588</v>
+        <v>0.005847953216374269</v>
       </c>
       <c r="L41">
         <v>1</v>
@@ -3333,7 +3144,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>2</v>
+        <v>314</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -3341,13 +3152,13 @@
         <v>48</v>
       </c>
       <c r="B42">
-        <v>0.005232558139534884</v>
+        <v>0.005083514887436456</v>
       </c>
       <c r="C42">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D42">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E42">
         <v>1</v>
@@ -3359,13 +3170,13 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>429</v>
+        <v>2</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>307</v>
+        <v>238</v>
       </c>
       <c r="K42">
-        <v>0.007352941176470588</v>
+        <v>0.005847953216374269</v>
       </c>
       <c r="L42">
         <v>1</v>
@@ -3383,7 +3194,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>40</v>
+        <v>11</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -3391,13 +3202,13 @@
         <v>49</v>
       </c>
       <c r="B43">
-        <v>0.005232558139534884</v>
+        <v>0.004357298474945534</v>
       </c>
       <c r="C43">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D43">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E43">
         <v>1</v>
@@ -3409,13 +3220,13 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>16</v>
+        <v>94</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>308</v>
+        <v>239</v>
       </c>
       <c r="K43">
-        <v>0.007352941176470588</v>
+        <v>0.005847953216374269</v>
       </c>
       <c r="L43">
         <v>1</v>
@@ -3433,7 +3244,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>114</v>
+        <v>13</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -3441,13 +3252,13 @@
         <v>50</v>
       </c>
       <c r="B44">
-        <v>0.005232558139534884</v>
+        <v>0.004357298474945534</v>
       </c>
       <c r="C44">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D44">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E44">
         <v>1</v>
@@ -3459,13 +3270,13 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>309</v>
+        <v>240</v>
       </c>
       <c r="K44">
-        <v>0.007352941176470588</v>
+        <v>0.005847953216374269</v>
       </c>
       <c r="L44">
         <v>1</v>
@@ -3483,7 +3294,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>13</v>
+        <v>40</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -3491,13 +3302,13 @@
         <v>51</v>
       </c>
       <c r="B45">
-        <v>0.004651162790697674</v>
+        <v>0.004357298474945534</v>
       </c>
       <c r="C45">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D45">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E45">
         <v>1</v>
@@ -3509,13 +3320,13 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>944</v>
+        <v>22</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>310</v>
+        <v>241</v>
       </c>
       <c r="K45">
-        <v>0.007352941176470588</v>
+        <v>0.005847953216374269</v>
       </c>
       <c r="L45">
         <v>1</v>
@@ -3533,7 +3344,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>52</v>
+        <v>95</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -3541,31 +3352,31 @@
         <v>52</v>
       </c>
       <c r="B46">
-        <v>0.004651162790697674</v>
+        <v>0.004357298474945534</v>
       </c>
       <c r="C46">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D46">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E46">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="F46">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="G46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H46">
-        <v>952</v>
+        <v>22</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>311</v>
+        <v>242</v>
       </c>
       <c r="K46">
-        <v>0.007352941176470588</v>
+        <v>0.005847953216374269</v>
       </c>
       <c r="L46">
         <v>1</v>
@@ -3583,7 +3394,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>95</v>
+        <v>41</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -3591,13 +3402,13 @@
         <v>53</v>
       </c>
       <c r="B47">
-        <v>0.004069767441860465</v>
+        <v>0.004357298474945534</v>
       </c>
       <c r="C47">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D47">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E47">
         <v>1</v>
@@ -3609,13 +3420,13 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>130</v>
+        <v>5</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>312</v>
+        <v>243</v>
       </c>
       <c r="K47">
-        <v>0.007352941176470588</v>
+        <v>0.005847953216374269</v>
       </c>
       <c r="L47">
         <v>1</v>
@@ -3633,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>73</v>
+        <v>228</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -3641,49 +3452,49 @@
         <v>54</v>
       </c>
       <c r="B48">
-        <v>0.004069767441860465</v>
+        <v>0.004357298474945534</v>
       </c>
       <c r="C48">
+        <v>6</v>
+      </c>
+      <c r="D48">
+        <v>6</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48" t="b">
+        <v>0</v>
+      </c>
+      <c r="H48">
         <v>7</v>
       </c>
-      <c r="D48">
-        <v>7</v>
-      </c>
-      <c r="E48">
-        <v>1</v>
-      </c>
-      <c r="F48">
-        <v>0</v>
-      </c>
-      <c r="G48" t="b">
-        <v>0</v>
-      </c>
-      <c r="H48">
-        <v>9</v>
-      </c>
       <c r="J48" s="1" t="s">
-        <v>20</v>
+        <v>244</v>
       </c>
       <c r="K48">
-        <v>0.007352941176470588</v>
+        <v>0.005847953216374269</v>
       </c>
       <c r="L48">
         <v>1</v>
       </c>
       <c r="M48">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="N48">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="O48">
-        <v>0.03000000000000003</v>
+        <v>1</v>
       </c>
       <c r="P48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q48">
-        <v>2756</v>
+        <v>14</v>
       </c>
     </row>
     <row r="49" spans="1:17">
@@ -3691,13 +3502,13 @@
         <v>55</v>
       </c>
       <c r="B49">
-        <v>0.004069767441860465</v>
+        <v>0.004357298474945534</v>
       </c>
       <c r="C49">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D49">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E49">
         <v>1</v>
@@ -3709,31 +3520,31 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>180</v>
+        <v>94</v>
       </c>
       <c r="K49">
-        <v>0.007352941176470588</v>
+        <v>0.005847953216374269</v>
       </c>
       <c r="L49">
         <v>1</v>
       </c>
       <c r="M49">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N49">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="O49">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="P49" t="b">
         <v>1</v>
       </c>
       <c r="Q49">
-        <v>113</v>
+        <v>199</v>
       </c>
     </row>
     <row r="50" spans="1:17">
@@ -3741,13 +3552,13 @@
         <v>56</v>
       </c>
       <c r="B50">
-        <v>0.004069767441860465</v>
+        <v>0.003631082062454612</v>
       </c>
       <c r="C50">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D50">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E50">
         <v>1</v>
@@ -3759,31 +3570,31 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>164</v>
+        <v>245</v>
       </c>
       <c r="K50">
-        <v>0.007352941176470588</v>
+        <v>0.005847953216374269</v>
       </c>
       <c r="L50">
         <v>1</v>
       </c>
       <c r="M50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N50">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="O50">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="P50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q50">
-        <v>157</v>
+        <v>17</v>
       </c>
     </row>
     <row r="51" spans="1:17">
@@ -3791,13 +3602,13 @@
         <v>57</v>
       </c>
       <c r="B51">
-        <v>0.004069767441860465</v>
+        <v>0.003631082062454612</v>
       </c>
       <c r="C51">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D51">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E51">
         <v>1</v>
@@ -3809,13 +3620,13 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>68</v>
+        <v>951</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>313</v>
+        <v>246</v>
       </c>
       <c r="K51">
-        <v>0.007352941176470588</v>
+        <v>0.005847953216374269</v>
       </c>
       <c r="L51">
         <v>1</v>
@@ -3833,7 +3644,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>29</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:17">
@@ -3841,13 +3652,13 @@
         <v>58</v>
       </c>
       <c r="B52">
-        <v>0.003488372093023256</v>
+        <v>0.003631082062454612</v>
       </c>
       <c r="C52">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D52">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E52">
         <v>1</v>
@@ -3859,13 +3670,13 @@
         <v>0</v>
       </c>
       <c r="H52">
-        <v>94</v>
+        <v>7</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>314</v>
+        <v>247</v>
       </c>
       <c r="K52">
-        <v>0.007352941176470588</v>
+        <v>0.005847953216374269</v>
       </c>
       <c r="L52">
         <v>1</v>
@@ -3883,7 +3694,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>5</v>
+        <v>70</v>
       </c>
     </row>
     <row r="53" spans="1:17">
@@ -3891,13 +3702,13 @@
         <v>59</v>
       </c>
       <c r="B53">
-        <v>0.003488372093023256</v>
+        <v>0.003631082062454612</v>
       </c>
       <c r="C53">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D53">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E53">
         <v>1</v>
@@ -3909,13 +3720,13 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>315</v>
+        <v>248</v>
       </c>
       <c r="K53">
-        <v>0.007352941176470588</v>
+        <v>0.005847953216374269</v>
       </c>
       <c r="L53">
         <v>1</v>
@@ -3933,7 +3744,7 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>56</v>
+        <v>94</v>
       </c>
     </row>
     <row r="54" spans="1:17">
@@ -3941,13 +3752,13 @@
         <v>60</v>
       </c>
       <c r="B54">
-        <v>0.003488372093023256</v>
+        <v>0.003631082062454612</v>
       </c>
       <c r="C54">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D54">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E54">
         <v>1</v>
@@ -3959,13 +3770,13 @@
         <v>0</v>
       </c>
       <c r="H54">
-        <v>282</v>
+        <v>21</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>316</v>
+        <v>249</v>
       </c>
       <c r="K54">
-        <v>0.007352941176470588</v>
+        <v>0.005847953216374269</v>
       </c>
       <c r="L54">
         <v>1</v>
@@ -3983,7 +3794,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>17</v>
+        <v>29</v>
       </c>
     </row>
     <row r="55" spans="1:17">
@@ -3991,25 +3802,49 @@
         <v>61</v>
       </c>
       <c r="B55">
-        <v>0.003488372093023256</v>
+        <v>0.003631082062454612</v>
       </c>
       <c r="C55">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D55">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E55">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="F55">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="G55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H55">
-        <v>1093</v>
+        <v>28</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="K55">
+        <v>0.005847953216374269</v>
+      </c>
+      <c r="L55">
+        <v>1</v>
+      </c>
+      <c r="M55">
+        <v>1</v>
+      </c>
+      <c r="N55">
+        <v>0</v>
+      </c>
+      <c r="O55">
+        <v>1</v>
+      </c>
+      <c r="P55" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q55">
+        <v>3</v>
       </c>
     </row>
     <row r="56" spans="1:17">
@@ -4017,25 +3852,49 @@
         <v>62</v>
       </c>
       <c r="B56">
-        <v>0.003488372093023256</v>
+        <v>0.002904865649963689</v>
       </c>
       <c r="C56">
+        <v>4</v>
+      </c>
+      <c r="D56">
+        <v>4</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56" t="b">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>446</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="K56">
+        <v>0.005847953216374269</v>
+      </c>
+      <c r="L56">
+        <v>1</v>
+      </c>
+      <c r="M56">
+        <v>1</v>
+      </c>
+      <c r="N56">
+        <v>0</v>
+      </c>
+      <c r="O56">
+        <v>1</v>
+      </c>
+      <c r="P56" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q56">
         <v>6</v>
-      </c>
-      <c r="D56">
-        <v>6</v>
-      </c>
-      <c r="E56">
-        <v>1</v>
-      </c>
-      <c r="F56">
-        <v>0</v>
-      </c>
-      <c r="G56" t="b">
-        <v>0</v>
-      </c>
-      <c r="H56">
-        <v>12</v>
       </c>
     </row>
     <row r="57" spans="1:17">
@@ -4043,13 +3902,13 @@
         <v>63</v>
       </c>
       <c r="B57">
-        <v>0.003488372093023256</v>
+        <v>0.002904865649963689</v>
       </c>
       <c r="C57">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D57">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E57">
         <v>1</v>
@@ -4061,7 +3920,31 @@
         <v>0</v>
       </c>
       <c r="H57">
-        <v>534</v>
+        <v>151</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="K57">
+        <v>0.005847953216374269</v>
+      </c>
+      <c r="L57">
+        <v>1</v>
+      </c>
+      <c r="M57">
+        <v>1</v>
+      </c>
+      <c r="N57">
+        <v>0</v>
+      </c>
+      <c r="O57">
+        <v>1</v>
+      </c>
+      <c r="P57" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q57">
+        <v>56</v>
       </c>
     </row>
     <row r="58" spans="1:17">
@@ -4069,25 +3952,49 @@
         <v>64</v>
       </c>
       <c r="B58">
-        <v>0.003488372093023256</v>
+        <v>0.002904865649963689</v>
       </c>
       <c r="C58">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D58">
         <v>6</v>
       </c>
       <c r="E58">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="F58">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="G58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H58">
-        <v>10</v>
+        <v>1730</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="K58">
+        <v>0.005847953216374269</v>
+      </c>
+      <c r="L58">
+        <v>1</v>
+      </c>
+      <c r="M58">
+        <v>1</v>
+      </c>
+      <c r="N58">
+        <v>0</v>
+      </c>
+      <c r="O58">
+        <v>1</v>
+      </c>
+      <c r="P58" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q58">
+        <v>17</v>
       </c>
     </row>
     <row r="59" spans="1:17">
@@ -4095,25 +4002,25 @@
         <v>65</v>
       </c>
       <c r="B59">
-        <v>0.003488372093023256</v>
+        <v>0.002904865649963689</v>
       </c>
       <c r="C59">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D59">
         <v>6</v>
       </c>
       <c r="E59">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="F59">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="G59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H59">
-        <v>10</v>
+        <v>727</v>
       </c>
     </row>
     <row r="60" spans="1:17">
@@ -4121,13 +4028,13 @@
         <v>66</v>
       </c>
       <c r="B60">
-        <v>0.002906976744186046</v>
+        <v>0.002904865649963689</v>
       </c>
       <c r="C60">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D60">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E60">
         <v>1</v>
@@ -4139,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="H60">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="61" spans="1:17">
@@ -4147,13 +4054,13 @@
         <v>67</v>
       </c>
       <c r="B61">
-        <v>0.002906976744186046</v>
+        <v>0.002904865649963689</v>
       </c>
       <c r="C61">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D61">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E61">
         <v>1</v>
@@ -4165,7 +4072,7 @@
         <v>0</v>
       </c>
       <c r="H61">
-        <v>183</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" spans="1:17">
@@ -4173,13 +4080,13 @@
         <v>68</v>
       </c>
       <c r="B62">
-        <v>0.002906976744186046</v>
+        <v>0.002904865649963689</v>
       </c>
       <c r="C62">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D62">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E62">
         <v>1</v>
@@ -4191,7 +4098,7 @@
         <v>0</v>
       </c>
       <c r="H62">
-        <v>120</v>
+        <v>19</v>
       </c>
     </row>
     <row r="63" spans="1:17">
@@ -4199,13 +4106,13 @@
         <v>69</v>
       </c>
       <c r="B63">
-        <v>0.002906976744186046</v>
+        <v>0.002904865649963689</v>
       </c>
       <c r="C63">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D63">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E63">
         <v>1</v>
@@ -4217,7 +4124,7 @@
         <v>0</v>
       </c>
       <c r="H63">
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
     <row r="64" spans="1:17">
@@ -4225,25 +4132,25 @@
         <v>70</v>
       </c>
       <c r="B64">
-        <v>0.002906976744186046</v>
+        <v>0.002904865649963689</v>
       </c>
       <c r="C64">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D64">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E64">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="F64">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="G64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H64">
-        <v>872</v>
+        <v>13</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -4251,13 +4158,13 @@
         <v>71</v>
       </c>
       <c r="B65">
-        <v>0.002906976744186046</v>
+        <v>0.002904865649963689</v>
       </c>
       <c r="C65">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D65">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E65">
         <v>1</v>
@@ -4269,7 +4176,7 @@
         <v>0</v>
       </c>
       <c r="H65">
-        <v>150</v>
+        <v>17</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -4277,13 +4184,13 @@
         <v>72</v>
       </c>
       <c r="B66">
-        <v>0.002906976744186046</v>
+        <v>0.002178649237472767</v>
       </c>
       <c r="C66">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D66">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E66">
         <v>1</v>
@@ -4295,7 +4202,7 @@
         <v>0</v>
       </c>
       <c r="H66">
-        <v>139</v>
+        <v>949</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -4303,25 +4210,25 @@
         <v>73</v>
       </c>
       <c r="B67">
-        <v>0.002906976744186046</v>
+        <v>0.002178649237472767</v>
       </c>
       <c r="C67">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D67">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E67">
-        <v>1</v>
+        <v>0.38</v>
       </c>
       <c r="F67">
-        <v>0</v>
+        <v>0.62</v>
       </c>
       <c r="G67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H67">
-        <v>11</v>
+        <v>954</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -4329,13 +4236,13 @@
         <v>74</v>
       </c>
       <c r="B68">
-        <v>0.002906976744186046</v>
+        <v>0.002178649237472767</v>
       </c>
       <c r="C68">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D68">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E68">
         <v>1</v>
@@ -4347,7 +4254,7 @@
         <v>0</v>
       </c>
       <c r="H68">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -4355,13 +4262,13 @@
         <v>75</v>
       </c>
       <c r="B69">
-        <v>0.002906976744186046</v>
+        <v>0.002178649237472767</v>
       </c>
       <c r="C69">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D69">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E69">
         <v>1</v>
@@ -4373,7 +4280,7 @@
         <v>0</v>
       </c>
       <c r="H69">
-        <v>15</v>
+        <v>155</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -4381,13 +4288,13 @@
         <v>76</v>
       </c>
       <c r="B70">
-        <v>0.002906976744186046</v>
+        <v>0.002178649237472767</v>
       </c>
       <c r="C70">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D70">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E70">
         <v>1</v>
@@ -4399,7 +4306,7 @@
         <v>0</v>
       </c>
       <c r="H70">
-        <v>16</v>
+        <v>435</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -4407,13 +4314,13 @@
         <v>77</v>
       </c>
       <c r="B71">
-        <v>0.002906976744186046</v>
+        <v>0.002178649237472767</v>
       </c>
       <c r="C71">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D71">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E71">
         <v>1</v>
@@ -4425,7 +4332,7 @@
         <v>0</v>
       </c>
       <c r="H71">
-        <v>28</v>
+        <v>185</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -4433,25 +4340,25 @@
         <v>78</v>
       </c>
       <c r="B72">
-        <v>0.002906976744186046</v>
+        <v>0.002178649237472767</v>
       </c>
       <c r="C72">
+        <v>3</v>
+      </c>
+      <c r="D72">
+        <v>3</v>
+      </c>
+      <c r="E72">
+        <v>1</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72" t="b">
+        <v>0</v>
+      </c>
+      <c r="H72">
         <v>5</v>
-      </c>
-      <c r="D72">
-        <v>5</v>
-      </c>
-      <c r="E72">
-        <v>1</v>
-      </c>
-      <c r="F72">
-        <v>0</v>
-      </c>
-      <c r="G72" t="b">
-        <v>0</v>
-      </c>
-      <c r="H72">
-        <v>30</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -4459,13 +4366,13 @@
         <v>79</v>
       </c>
       <c r="B73">
-        <v>0.002325581395348837</v>
+        <v>0.002178649237472767</v>
       </c>
       <c r="C73">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D73">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E73">
         <v>1</v>
@@ -4477,7 +4384,7 @@
         <v>0</v>
       </c>
       <c r="H73">
-        <v>36</v>
+        <v>11</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -4485,13 +4392,13 @@
         <v>80</v>
       </c>
       <c r="B74">
-        <v>0.002325581395348837</v>
+        <v>0.002178649237472767</v>
       </c>
       <c r="C74">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D74">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E74">
         <v>1</v>
@@ -4503,7 +4410,7 @@
         <v>0</v>
       </c>
       <c r="H74">
-        <v>446</v>
+        <v>63</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -4511,25 +4418,25 @@
         <v>81</v>
       </c>
       <c r="B75">
-        <v>0.002325581395348837</v>
+        <v>0.002178649237472767</v>
       </c>
       <c r="C75">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D75">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E75">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="F75">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="G75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H75">
-        <v>776</v>
+        <v>21</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -4537,13 +4444,13 @@
         <v>82</v>
       </c>
       <c r="B76">
-        <v>0.002325581395348837</v>
+        <v>0.002178649237472767</v>
       </c>
       <c r="C76">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D76">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E76">
         <v>1</v>
@@ -4555,7 +4462,7 @@
         <v>0</v>
       </c>
       <c r="H76">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -4563,13 +4470,13 @@
         <v>83</v>
       </c>
       <c r="B77">
-        <v>0.002325581395348837</v>
+        <v>0.002178649237472767</v>
       </c>
       <c r="C77">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D77">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E77">
         <v>1</v>
@@ -4581,7 +4488,7 @@
         <v>0</v>
       </c>
       <c r="H77">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -4589,13 +4496,13 @@
         <v>84</v>
       </c>
       <c r="B78">
-        <v>0.002325581395348837</v>
+        <v>0.002178649237472767</v>
       </c>
       <c r="C78">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D78">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E78">
         <v>1</v>
@@ -4607,7 +4514,7 @@
         <v>0</v>
       </c>
       <c r="H78">
-        <v>8</v>
+        <v>68</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -4615,13 +4522,13 @@
         <v>85</v>
       </c>
       <c r="B79">
-        <v>0.002325581395348837</v>
+        <v>0.002178649237472767</v>
       </c>
       <c r="C79">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D79">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E79">
         <v>1</v>
@@ -4633,7 +4540,7 @@
         <v>0</v>
       </c>
       <c r="H79">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -4641,13 +4548,13 @@
         <v>86</v>
       </c>
       <c r="B80">
-        <v>0.002325581395348837</v>
+        <v>0.002178649237472767</v>
       </c>
       <c r="C80">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D80">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E80">
         <v>1</v>
@@ -4659,7 +4566,7 @@
         <v>0</v>
       </c>
       <c r="H80">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -4667,13 +4574,13 @@
         <v>87</v>
       </c>
       <c r="B81">
-        <v>0.002325581395348837</v>
+        <v>0.002178649237472767</v>
       </c>
       <c r="C81">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D81">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E81">
         <v>1</v>
@@ -4685,7 +4592,7 @@
         <v>0</v>
       </c>
       <c r="H81">
-        <v>7</v>
+        <v>537</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -4693,13 +4600,13 @@
         <v>88</v>
       </c>
       <c r="B82">
-        <v>0.002325581395348837</v>
+        <v>0.001452432824981845</v>
       </c>
       <c r="C82">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D82">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E82">
         <v>1</v>
@@ -4711,7 +4618,7 @@
         <v>0</v>
       </c>
       <c r="H82">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -4719,13 +4626,13 @@
         <v>89</v>
       </c>
       <c r="B83">
-        <v>0.002325581395348837</v>
+        <v>0.001452432824981845</v>
       </c>
       <c r="C83">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D83">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E83">
         <v>1</v>
@@ -4737,7 +4644,7 @@
         <v>0</v>
       </c>
       <c r="H83">
-        <v>75</v>
+        <v>147</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -4745,13 +4652,13 @@
         <v>90</v>
       </c>
       <c r="B84">
-        <v>0.002325581395348837</v>
+        <v>0.001452432824981845</v>
       </c>
       <c r="C84">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D84">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E84">
         <v>1</v>
@@ -4763,7 +4670,7 @@
         <v>0</v>
       </c>
       <c r="H84">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -4771,25 +4678,25 @@
         <v>91</v>
       </c>
       <c r="B85">
-        <v>0.002325581395348837</v>
+        <v>0.001452432824981845</v>
       </c>
       <c r="C85">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D85">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E85">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="F85">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="G85" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H85">
-        <v>120</v>
+        <v>237</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -4797,13 +4704,13 @@
         <v>92</v>
       </c>
       <c r="B86">
-        <v>0.001744186046511628</v>
+        <v>0.001452432824981845</v>
       </c>
       <c r="C86">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D86">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E86">
         <v>1</v>
@@ -4815,7 +4722,7 @@
         <v>0</v>
       </c>
       <c r="H86">
-        <v>237</v>
+        <v>6</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -4823,13 +4730,13 @@
         <v>93</v>
       </c>
       <c r="B87">
-        <v>0.001744186046511628</v>
+        <v>0.001452432824981845</v>
       </c>
       <c r="C87">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D87">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E87">
         <v>1</v>
@@ -4841,7 +4748,7 @@
         <v>0</v>
       </c>
       <c r="H87">
-        <v>13</v>
+        <v>779</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -4849,25 +4756,25 @@
         <v>94</v>
       </c>
       <c r="B88">
-        <v>0.001744186046511628</v>
+        <v>0.001452432824981845</v>
       </c>
       <c r="C88">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D88">
         <v>3</v>
       </c>
       <c r="E88">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="F88">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="G88" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H88">
-        <v>366</v>
+        <v>199</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -4875,25 +4782,25 @@
         <v>95</v>
       </c>
       <c r="B89">
-        <v>0.001744186046511628</v>
+        <v>0.001452432824981845</v>
       </c>
       <c r="C89">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D89">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E89">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="F89">
-        <v>0</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="G89" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H89">
-        <v>13</v>
+        <v>658</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -4901,13 +4808,13 @@
         <v>96</v>
       </c>
       <c r="B90">
-        <v>0.001744186046511628</v>
+        <v>0.001452432824981845</v>
       </c>
       <c r="C90">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D90">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E90">
         <v>1</v>
@@ -4919,7 +4826,7 @@
         <v>0</v>
       </c>
       <c r="H90">
-        <v>6</v>
+        <v>152</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -4927,13 +4834,13 @@
         <v>97</v>
       </c>
       <c r="B91">
-        <v>0.001744186046511628</v>
+        <v>0.001452432824981845</v>
       </c>
       <c r="C91">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D91">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E91">
         <v>1</v>
@@ -4945,7 +4852,7 @@
         <v>0</v>
       </c>
       <c r="H91">
-        <v>10</v>
+        <v>614</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -4953,13 +4860,13 @@
         <v>98</v>
       </c>
       <c r="B92">
-        <v>0.001744186046511628</v>
+        <v>0.001452432824981845</v>
       </c>
       <c r="C92">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D92">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E92">
         <v>1</v>
@@ -4971,7 +4878,7 @@
         <v>0</v>
       </c>
       <c r="H92">
-        <v>26</v>
+        <v>8</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -4979,13 +4886,13 @@
         <v>99</v>
       </c>
       <c r="B93">
-        <v>0.001744186046511628</v>
+        <v>0.001452432824981845</v>
       </c>
       <c r="C93">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D93">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E93">
         <v>1</v>
@@ -4997,7 +4904,7 @@
         <v>0</v>
       </c>
       <c r="H93">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -5005,13 +4912,13 @@
         <v>100</v>
       </c>
       <c r="B94">
-        <v>0.001744186046511628</v>
+        <v>0.001452432824981845</v>
       </c>
       <c r="C94">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D94">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E94">
         <v>1</v>
@@ -5023,7 +4930,7 @@
         <v>0</v>
       </c>
       <c r="H94">
-        <v>334</v>
+        <v>13</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -5031,13 +4938,13 @@
         <v>101</v>
       </c>
       <c r="B95">
-        <v>0.001744186046511628</v>
+        <v>0.001452432824981845</v>
       </c>
       <c r="C95">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D95">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E95">
         <v>1</v>
@@ -5049,7 +4956,7 @@
         <v>0</v>
       </c>
       <c r="H95">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -5057,13 +4964,13 @@
         <v>102</v>
       </c>
       <c r="B96">
-        <v>0.001744186046511628</v>
+        <v>0.001452432824981845</v>
       </c>
       <c r="C96">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D96">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E96">
         <v>1</v>
@@ -5075,7 +4982,7 @@
         <v>0</v>
       </c>
       <c r="H96">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -5083,13 +4990,13 @@
         <v>103</v>
       </c>
       <c r="B97">
-        <v>0.001744186046511628</v>
+        <v>0.001452432824981845</v>
       </c>
       <c r="C97">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D97">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E97">
         <v>1</v>
@@ -5101,7 +5008,7 @@
         <v>0</v>
       </c>
       <c r="H97">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -5109,13 +5016,13 @@
         <v>104</v>
       </c>
       <c r="B98">
-        <v>0.001744186046511628</v>
+        <v>0.001452432824981845</v>
       </c>
       <c r="C98">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D98">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E98">
         <v>1</v>
@@ -5127,7 +5034,7 @@
         <v>0</v>
       </c>
       <c r="H98">
-        <v>19</v>
+        <v>123</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -5135,13 +5042,13 @@
         <v>105</v>
       </c>
       <c r="B99">
-        <v>0.001744186046511628</v>
+        <v>0.001452432824981845</v>
       </c>
       <c r="C99">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D99">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E99">
         <v>1</v>
@@ -5153,7 +5060,7 @@
         <v>0</v>
       </c>
       <c r="H99">
-        <v>103</v>
+        <v>112</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -5161,13 +5068,13 @@
         <v>106</v>
       </c>
       <c r="B100">
-        <v>0.001744186046511628</v>
+        <v>0.001452432824981845</v>
       </c>
       <c r="C100">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D100">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E100">
         <v>1</v>
@@ -5179,7 +5086,7 @@
         <v>0</v>
       </c>
       <c r="H100">
-        <v>64</v>
+        <v>15</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -5187,13 +5094,13 @@
         <v>107</v>
       </c>
       <c r="B101">
-        <v>0.001744186046511628</v>
+        <v>0.001452432824981845</v>
       </c>
       <c r="C101">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D101">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E101">
         <v>1</v>
@@ -5205,7 +5112,7 @@
         <v>0</v>
       </c>
       <c r="H101">
-        <v>111</v>
+        <v>10</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -5213,13 +5120,13 @@
         <v>108</v>
       </c>
       <c r="B102">
-        <v>0.001744186046511628</v>
+        <v>0.001452432824981845</v>
       </c>
       <c r="C102">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D102">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E102">
         <v>1</v>
@@ -5231,7 +5138,7 @@
         <v>0</v>
       </c>
       <c r="H102">
-        <v>56</v>
+        <v>9</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -5239,13 +5146,13 @@
         <v>109</v>
       </c>
       <c r="B103">
-        <v>0.001744186046511628</v>
+        <v>0.001452432824981845</v>
       </c>
       <c r="C103">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D103">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E103">
         <v>1</v>
@@ -5257,7 +5164,7 @@
         <v>0</v>
       </c>
       <c r="H103">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -5265,13 +5172,13 @@
         <v>110</v>
       </c>
       <c r="B104">
-        <v>0.001744186046511628</v>
+        <v>0.001452432824981845</v>
       </c>
       <c r="C104">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D104">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E104">
         <v>1</v>
@@ -5283,7 +5190,7 @@
         <v>0</v>
       </c>
       <c r="H104">
-        <v>7</v>
+        <v>33</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -5291,13 +5198,13 @@
         <v>111</v>
       </c>
       <c r="B105">
-        <v>0.001744186046511628</v>
+        <v>0.001452432824981845</v>
       </c>
       <c r="C105">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D105">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E105">
         <v>1</v>
@@ -5309,7 +5216,7 @@
         <v>0</v>
       </c>
       <c r="H105">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -5317,13 +5224,13 @@
         <v>112</v>
       </c>
       <c r="B106">
-        <v>0.001744186046511628</v>
+        <v>0.001452432824981845</v>
       </c>
       <c r="C106">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D106">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E106">
         <v>1</v>
@@ -5335,7 +5242,7 @@
         <v>0</v>
       </c>
       <c r="H106">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -5343,13 +5250,13 @@
         <v>113</v>
       </c>
       <c r="B107">
-        <v>0.001744186046511628</v>
+        <v>0.001452432824981845</v>
       </c>
       <c r="C107">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D107">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E107">
         <v>1</v>
@@ -5361,7 +5268,7 @@
         <v>0</v>
       </c>
       <c r="H107">
-        <v>7</v>
+        <v>24</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -5369,13 +5276,13 @@
         <v>114</v>
       </c>
       <c r="B108">
-        <v>0.001744186046511628</v>
+        <v>0.001452432824981845</v>
       </c>
       <c r="C108">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D108">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E108">
         <v>1</v>
@@ -5387,7 +5294,7 @@
         <v>0</v>
       </c>
       <c r="H108">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -5395,13 +5302,13 @@
         <v>115</v>
       </c>
       <c r="B109">
-        <v>0.001744186046511628</v>
+        <v>0.001452432824981845</v>
       </c>
       <c r="C109">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D109">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E109">
         <v>1</v>
@@ -5413,7 +5320,7 @@
         <v>0</v>
       </c>
       <c r="H109">
-        <v>122</v>
+        <v>52</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -5421,25 +5328,25 @@
         <v>116</v>
       </c>
       <c r="B110">
-        <v>0.001744186046511628</v>
+        <v>0.001452432824981845</v>
       </c>
       <c r="C110">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D110">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E110">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="F110">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="G110" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H110">
-        <v>659</v>
+        <v>12</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -5447,7 +5354,7 @@
         <v>117</v>
       </c>
       <c r="B111">
-        <v>0.001162790697674419</v>
+        <v>0.001452432824981845</v>
       </c>
       <c r="C111">
         <v>2</v>
@@ -5465,7 +5372,7 @@
         <v>0</v>
       </c>
       <c r="H111">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -5473,7 +5380,7 @@
         <v>118</v>
       </c>
       <c r="B112">
-        <v>0.001162790697674419</v>
+        <v>0.001452432824981845</v>
       </c>
       <c r="C112">
         <v>2</v>
@@ -5491,7 +5398,7 @@
         <v>0</v>
       </c>
       <c r="H112">
-        <v>69</v>
+        <v>11</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -5499,7 +5406,7 @@
         <v>119</v>
       </c>
       <c r="B113">
-        <v>0.001162790697674419</v>
+        <v>0.001452432824981845</v>
       </c>
       <c r="C113">
         <v>2</v>
@@ -5517,7 +5424,7 @@
         <v>0</v>
       </c>
       <c r="H113">
-        <v>6</v>
+        <v>48</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -5525,13 +5432,13 @@
         <v>120</v>
       </c>
       <c r="B114">
-        <v>0.001162790697674419</v>
+        <v>0.0007262164124909223</v>
       </c>
       <c r="C114">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D114">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E114">
         <v>1</v>
@@ -5543,7 +5450,7 @@
         <v>0</v>
       </c>
       <c r="H114">
-        <v>224</v>
+        <v>15</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -5551,13 +5458,13 @@
         <v>121</v>
       </c>
       <c r="B115">
-        <v>0.001162790697674419</v>
+        <v>0.0007262164124909223</v>
       </c>
       <c r="C115">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D115">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E115">
         <v>1</v>
@@ -5569,7 +5476,7 @@
         <v>0</v>
       </c>
       <c r="H115">
-        <v>81</v>
+        <v>4</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -5577,13 +5484,13 @@
         <v>122</v>
       </c>
       <c r="B116">
-        <v>0.001162790697674419</v>
+        <v>0.0007262164124909223</v>
       </c>
       <c r="C116">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D116">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E116">
         <v>1</v>
@@ -5595,7 +5502,7 @@
         <v>0</v>
       </c>
       <c r="H116">
-        <v>71</v>
+        <v>17</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -5603,13 +5510,13 @@
         <v>123</v>
       </c>
       <c r="B117">
-        <v>0.001162790697674419</v>
+        <v>0.0007262164124909223</v>
       </c>
       <c r="C117">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D117">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E117">
         <v>1</v>
@@ -5621,7 +5528,7 @@
         <v>0</v>
       </c>
       <c r="H117">
-        <v>200</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -5629,13 +5536,13 @@
         <v>124</v>
       </c>
       <c r="B118">
-        <v>0.001162790697674419</v>
+        <v>0.0007262164124909223</v>
       </c>
       <c r="C118">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D118">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E118">
         <v>1</v>
@@ -5647,7 +5554,7 @@
         <v>0</v>
       </c>
       <c r="H118">
-        <v>4</v>
+        <v>368</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -5655,13 +5562,13 @@
         <v>125</v>
       </c>
       <c r="B119">
-        <v>0.001162790697674419</v>
+        <v>0.0007262164124909223</v>
       </c>
       <c r="C119">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D119">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E119">
         <v>1</v>
@@ -5673,7 +5580,7 @@
         <v>0</v>
       </c>
       <c r="H119">
-        <v>159</v>
+        <v>167</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -5681,13 +5588,13 @@
         <v>126</v>
       </c>
       <c r="B120">
-        <v>0.001162790697674419</v>
+        <v>0.0007262164124909223</v>
       </c>
       <c r="C120">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D120">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E120">
         <v>1</v>
@@ -5699,7 +5606,7 @@
         <v>0</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>23</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -5707,13 +5614,13 @@
         <v>127</v>
       </c>
       <c r="B121">
-        <v>0.001162790697674419</v>
+        <v>0.0007262164124909223</v>
       </c>
       <c r="C121">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D121">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E121">
         <v>1</v>
@@ -5725,7 +5632,7 @@
         <v>0</v>
       </c>
       <c r="H121">
-        <v>52</v>
+        <v>16</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -5733,13 +5640,13 @@
         <v>128</v>
       </c>
       <c r="B122">
-        <v>0.001162790697674419</v>
+        <v>0.0007262164124909223</v>
       </c>
       <c r="C122">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D122">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E122">
         <v>1</v>
@@ -5751,7 +5658,7 @@
         <v>0</v>
       </c>
       <c r="H122">
-        <v>45</v>
+        <v>114</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -5759,25 +5666,25 @@
         <v>129</v>
       </c>
       <c r="B123">
-        <v>0.001162790697674419</v>
+        <v>0.0007262164124909223</v>
       </c>
       <c r="C123">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D123">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E123">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="F123">
-        <v>0</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="G123" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H123">
-        <v>6</v>
+        <v>709</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -5785,13 +5692,13 @@
         <v>130</v>
       </c>
       <c r="B124">
-        <v>0.001162790697674419</v>
+        <v>0.0007262164124909223</v>
       </c>
       <c r="C124">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D124">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E124">
         <v>1</v>
@@ -5803,7 +5710,7 @@
         <v>0</v>
       </c>
       <c r="H124">
-        <v>30</v>
+        <v>11</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -5811,13 +5718,13 @@
         <v>131</v>
       </c>
       <c r="B125">
-        <v>0.001162790697674419</v>
+        <v>0.0007262164124909223</v>
       </c>
       <c r="C125">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D125">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E125">
         <v>1</v>
@@ -5829,7 +5736,7 @@
         <v>0</v>
       </c>
       <c r="H125">
-        <v>64</v>
+        <v>8</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -5837,13 +5744,13 @@
         <v>132</v>
       </c>
       <c r="B126">
-        <v>0.001162790697674419</v>
+        <v>0.0007262164124909223</v>
       </c>
       <c r="C126">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D126">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E126">
         <v>1</v>
@@ -5855,7 +5762,7 @@
         <v>0</v>
       </c>
       <c r="H126">
-        <v>21</v>
+        <v>198</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -5863,13 +5770,13 @@
         <v>133</v>
       </c>
       <c r="B127">
-        <v>0.001162790697674419</v>
+        <v>0.0007262164124909223</v>
       </c>
       <c r="C127">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D127">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E127">
         <v>1</v>
@@ -5881,7 +5788,7 @@
         <v>0</v>
       </c>
       <c r="H127">
-        <v>52</v>
+        <v>107</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -5889,13 +5796,13 @@
         <v>134</v>
       </c>
       <c r="B128">
-        <v>0.001162790697674419</v>
+        <v>0.0007262164124909223</v>
       </c>
       <c r="C128">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D128">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E128">
         <v>1</v>
@@ -5915,13 +5822,13 @@
         <v>135</v>
       </c>
       <c r="B129">
-        <v>0.001162790697674419</v>
+        <v>0.0007262164124909223</v>
       </c>
       <c r="C129">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D129">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E129">
         <v>1</v>
@@ -5933,7 +5840,7 @@
         <v>0</v>
       </c>
       <c r="H129">
-        <v>264</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -5941,25 +5848,25 @@
         <v>136</v>
       </c>
       <c r="B130">
-        <v>0.001162790697674419</v>
+        <v>0.0007262164124909223</v>
       </c>
       <c r="C130">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D130">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E130">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="F130">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="G130" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -5967,13 +5874,13 @@
         <v>137</v>
       </c>
       <c r="B131">
-        <v>0.001162790697674419</v>
+        <v>0.0007262164124909223</v>
       </c>
       <c r="C131">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D131">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E131">
         <v>1</v>
@@ -5985,7 +5892,7 @@
         <v>0</v>
       </c>
       <c r="H131">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -5993,13 +5900,13 @@
         <v>138</v>
       </c>
       <c r="B132">
-        <v>0.001162790697674419</v>
+        <v>0.0007262164124909223</v>
       </c>
       <c r="C132">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D132">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E132">
         <v>1</v>
@@ -6011,7 +5918,7 @@
         <v>0</v>
       </c>
       <c r="H132">
-        <v>33</v>
+        <v>3</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -6019,13 +5926,13 @@
         <v>139</v>
       </c>
       <c r="B133">
-        <v>0.001162790697674419</v>
+        <v>0.0007262164124909223</v>
       </c>
       <c r="C133">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D133">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E133">
         <v>1</v>
@@ -6037,7 +5944,7 @@
         <v>0</v>
       </c>
       <c r="H133">
-        <v>7</v>
+        <v>95</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -6045,13 +5952,13 @@
         <v>140</v>
       </c>
       <c r="B134">
-        <v>0.001162790697674419</v>
+        <v>0.0007262164124909223</v>
       </c>
       <c r="C134">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D134">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E134">
         <v>1</v>
@@ -6063,7 +5970,7 @@
         <v>0</v>
       </c>
       <c r="H134">
-        <v>13</v>
+        <v>158</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -6071,13 +5978,13 @@
         <v>141</v>
       </c>
       <c r="B135">
-        <v>0.001162790697674419</v>
+        <v>0.0007262164124909223</v>
       </c>
       <c r="C135">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D135">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E135">
         <v>1</v>
@@ -6089,7 +5996,7 @@
         <v>0</v>
       </c>
       <c r="H135">
-        <v>11</v>
+        <v>277</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -6097,13 +6004,13 @@
         <v>142</v>
       </c>
       <c r="B136">
-        <v>0.001162790697674419</v>
+        <v>0.0007262164124909223</v>
       </c>
       <c r="C136">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D136">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E136">
         <v>1</v>
@@ -6115,7 +6022,7 @@
         <v>0</v>
       </c>
       <c r="H136">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -6123,25 +6030,25 @@
         <v>143</v>
       </c>
       <c r="B137">
-        <v>0.001162790697674419</v>
+        <v>0.0007262164124909223</v>
       </c>
       <c r="C137">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D137">
         <v>2</v>
       </c>
       <c r="E137">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F137">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G137" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H137">
-        <v>52</v>
+        <v>876</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -6149,13 +6056,13 @@
         <v>144</v>
       </c>
       <c r="B138">
-        <v>0.001162790697674419</v>
+        <v>0.0007262164124909223</v>
       </c>
       <c r="C138">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D138">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E138">
         <v>1</v>
@@ -6167,7 +6074,7 @@
         <v>0</v>
       </c>
       <c r="H138">
-        <v>129</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -6175,13 +6082,13 @@
         <v>145</v>
       </c>
       <c r="B139">
-        <v>0.001162790697674419</v>
+        <v>0.0007262164124909223</v>
       </c>
       <c r="C139">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D139">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E139">
         <v>1</v>
@@ -6193,7 +6100,7 @@
         <v>0</v>
       </c>
       <c r="H139">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -6201,13 +6108,13 @@
         <v>146</v>
       </c>
       <c r="B140">
-        <v>0.001162790697674419</v>
+        <v>0.0007262164124909223</v>
       </c>
       <c r="C140">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D140">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E140">
         <v>1</v>
@@ -6219,7 +6126,7 @@
         <v>0</v>
       </c>
       <c r="H140">
-        <v>26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -6227,13 +6134,13 @@
         <v>147</v>
       </c>
       <c r="B141">
-        <v>0.001162790697674419</v>
+        <v>0.0007262164124909223</v>
       </c>
       <c r="C141">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D141">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E141">
         <v>1</v>
@@ -6245,7 +6152,7 @@
         <v>0</v>
       </c>
       <c r="H141">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -6253,25 +6160,25 @@
         <v>148</v>
       </c>
       <c r="B142">
-        <v>0.001162790697674419</v>
+        <v>0.0007262164124909223</v>
       </c>
       <c r="C142">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D142">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E142">
-        <v>1</v>
+        <v>0.17</v>
       </c>
       <c r="F142">
-        <v>0</v>
+        <v>0.83</v>
       </c>
       <c r="G142" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H142">
-        <v>156</v>
+        <v>339</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -6279,25 +6186,25 @@
         <v>149</v>
       </c>
       <c r="B143">
-        <v>0.001162790697674419</v>
+        <v>0.0007262164124909223</v>
       </c>
       <c r="C143">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D143">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E143">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="F143">
-        <v>0.6699999999999999</v>
+        <v>0</v>
       </c>
       <c r="G143" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H143">
-        <v>1092</v>
+        <v>31</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -6305,7 +6212,7 @@
         <v>150</v>
       </c>
       <c r="B144">
-        <v>0.0005813953488372093</v>
+        <v>0.0007262164124909223</v>
       </c>
       <c r="C144">
         <v>1</v>
@@ -6323,7 +6230,7 @@
         <v>0</v>
       </c>
       <c r="H144">
-        <v>148</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -6331,7 +6238,7 @@
         <v>151</v>
       </c>
       <c r="B145">
-        <v>0.0005813953488372093</v>
+        <v>0.0007262164124909223</v>
       </c>
       <c r="C145">
         <v>1</v>
@@ -6349,7 +6256,7 @@
         <v>0</v>
       </c>
       <c r="H145">
-        <v>4</v>
+        <v>384</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -6357,7 +6264,7 @@
         <v>152</v>
       </c>
       <c r="B146">
-        <v>0.0005813953488372093</v>
+        <v>0.0007262164124909223</v>
       </c>
       <c r="C146">
         <v>1</v>
@@ -6375,7 +6282,7 @@
         <v>0</v>
       </c>
       <c r="H146">
-        <v>17</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -6383,7 +6290,7 @@
         <v>153</v>
       </c>
       <c r="B147">
-        <v>0.0005813953488372093</v>
+        <v>0.0007262164124909223</v>
       </c>
       <c r="C147">
         <v>1</v>
@@ -6401,7 +6308,7 @@
         <v>0</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -6409,25 +6316,25 @@
         <v>154</v>
       </c>
       <c r="B148">
-        <v>0.0005813953488372093</v>
+        <v>0.0007262164124909223</v>
       </c>
       <c r="C148">
         <v>1</v>
       </c>
       <c r="D148">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E148">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="F148">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="G148" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H148">
-        <v>341</v>
+        <v>9</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -6435,7 +6342,7 @@
         <v>155</v>
       </c>
       <c r="B149">
-        <v>0.0005813953488372093</v>
+        <v>0.0007262164124909223</v>
       </c>
       <c r="C149">
         <v>1</v>
@@ -6453,7 +6360,7 @@
         <v>0</v>
       </c>
       <c r="H149">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -6461,7 +6368,7 @@
         <v>156</v>
       </c>
       <c r="B150">
-        <v>0.0005813953488372093</v>
+        <v>0.0007262164124909223</v>
       </c>
       <c r="C150">
         <v>1</v>
@@ -6479,7 +6386,7 @@
         <v>0</v>
       </c>
       <c r="H150">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -6487,7 +6394,7 @@
         <v>157</v>
       </c>
       <c r="B151">
-        <v>0.0005813953488372093</v>
+        <v>0.0007262164124909223</v>
       </c>
       <c r="C151">
         <v>1</v>
@@ -6505,7 +6412,7 @@
         <v>0</v>
       </c>
       <c r="H151">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -6513,7 +6420,7 @@
         <v>158</v>
       </c>
       <c r="B152">
-        <v>0.0005813953488372093</v>
+        <v>0.0007262164124909223</v>
       </c>
       <c r="C152">
         <v>1</v>
@@ -6531,7 +6438,7 @@
         <v>0</v>
       </c>
       <c r="H152">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -6539,7 +6446,7 @@
         <v>159</v>
       </c>
       <c r="B153">
-        <v>0.0005813953488372093</v>
+        <v>0.0007262164124909223</v>
       </c>
       <c r="C153">
         <v>1</v>
@@ -6557,7 +6464,7 @@
         <v>0</v>
       </c>
       <c r="H153">
-        <v>4</v>
+        <v>287</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -6565,7 +6472,7 @@
         <v>160</v>
       </c>
       <c r="B154">
-        <v>0.0005813953488372093</v>
+        <v>0.0007262164124909223</v>
       </c>
       <c r="C154">
         <v>1</v>
@@ -6583,7 +6490,7 @@
         <v>0</v>
       </c>
       <c r="H154">
-        <v>45</v>
+        <v>105</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -6591,7 +6498,7 @@
         <v>161</v>
       </c>
       <c r="B155">
-        <v>0.0005813953488372093</v>
+        <v>0.0007262164124909223</v>
       </c>
       <c r="C155">
         <v>1</v>
@@ -6609,7 +6516,7 @@
         <v>0</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -6617,7 +6524,7 @@
         <v>162</v>
       </c>
       <c r="B156">
-        <v>0.0005813953488372093</v>
+        <v>0.0007262164124909223</v>
       </c>
       <c r="C156">
         <v>1</v>
@@ -6635,7 +6542,7 @@
         <v>0</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -6643,7 +6550,7 @@
         <v>163</v>
       </c>
       <c r="B157">
-        <v>0.0005813953488372093</v>
+        <v>0.0007262164124909223</v>
       </c>
       <c r="C157">
         <v>1</v>
@@ -6669,25 +6576,25 @@
         <v>164</v>
       </c>
       <c r="B158">
-        <v>0.0005813953488372093</v>
+        <v>0.0007262164124909223</v>
       </c>
       <c r="C158">
         <v>1</v>
       </c>
       <c r="D158">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E158">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F158">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G158" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H158">
-        <v>157</v>
+        <v>4</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -6695,7 +6602,7 @@
         <v>165</v>
       </c>
       <c r="B159">
-        <v>0.0005813953488372093</v>
+        <v>0.0007262164124909223</v>
       </c>
       <c r="C159">
         <v>1</v>
@@ -6713,7 +6620,7 @@
         <v>0</v>
       </c>
       <c r="H159">
-        <v>277</v>
+        <v>124</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -6721,7 +6628,7 @@
         <v>166</v>
       </c>
       <c r="B160">
-        <v>0.0005813953488372093</v>
+        <v>0.0007262164124909223</v>
       </c>
       <c r="C160">
         <v>1</v>
@@ -6739,7 +6646,7 @@
         <v>0</v>
       </c>
       <c r="H160">
-        <v>282</v>
+        <v>15</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -6747,7 +6654,7 @@
         <v>167</v>
       </c>
       <c r="B161">
-        <v>0.0005813953488372093</v>
+        <v>0.0007262164124909223</v>
       </c>
       <c r="C161">
         <v>1</v>
@@ -6773,7 +6680,7 @@
         <v>168</v>
       </c>
       <c r="B162">
-        <v>0.0005813953488372093</v>
+        <v>0.0007262164124909223</v>
       </c>
       <c r="C162">
         <v>1</v>
@@ -6799,7 +6706,7 @@
         <v>169</v>
       </c>
       <c r="B163">
-        <v>0.0005813953488372093</v>
+        <v>0.0007262164124909223</v>
       </c>
       <c r="C163">
         <v>1</v>
@@ -6817,7 +6724,7 @@
         <v>0</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -6825,7 +6732,7 @@
         <v>170</v>
       </c>
       <c r="B164">
-        <v>0.0005813953488372093</v>
+        <v>0.0007262164124909223</v>
       </c>
       <c r="C164">
         <v>1</v>
@@ -6843,7 +6750,7 @@
         <v>0</v>
       </c>
       <c r="H164">
-        <v>107</v>
+        <v>5</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -6851,7 +6758,7 @@
         <v>171</v>
       </c>
       <c r="B165">
-        <v>0.0005813953488372093</v>
+        <v>0.0007262164124909223</v>
       </c>
       <c r="C165">
         <v>1</v>
@@ -6869,7 +6776,7 @@
         <v>0</v>
       </c>
       <c r="H165">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -6877,7 +6784,7 @@
         <v>172</v>
       </c>
       <c r="B166">
-        <v>0.0005813953488372093</v>
+        <v>0.0007262164124909223</v>
       </c>
       <c r="C166">
         <v>1</v>
@@ -6903,7 +6810,7 @@
         <v>173</v>
       </c>
       <c r="B167">
-        <v>0.0005813953488372093</v>
+        <v>0.0007262164124909223</v>
       </c>
       <c r="C167">
         <v>1</v>
@@ -6921,7 +6828,7 @@
         <v>0</v>
       </c>
       <c r="H167">
-        <v>60</v>
+        <v>5</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -6929,25 +6836,25 @@
         <v>174</v>
       </c>
       <c r="B168">
-        <v>0.0005813953488372093</v>
+        <v>0.0007262164124909223</v>
       </c>
       <c r="C168">
         <v>1</v>
       </c>
       <c r="D168">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E168">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F168">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G168" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H168">
-        <v>614</v>
+        <v>12</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -6955,7 +6862,7 @@
         <v>175</v>
       </c>
       <c r="B169">
-        <v>0.0005813953488372093</v>
+        <v>0.0007262164124909223</v>
       </c>
       <c r="C169">
         <v>1</v>
@@ -6973,7 +6880,7 @@
         <v>0</v>
       </c>
       <c r="H169">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -6981,7 +6888,7 @@
         <v>176</v>
       </c>
       <c r="B170">
-        <v>0.0005813953488372093</v>
+        <v>0.0007262164124909223</v>
       </c>
       <c r="C170">
         <v>1</v>
@@ -6999,7 +6906,7 @@
         <v>0</v>
       </c>
       <c r="H170">
-        <v>1</v>
+        <v>40</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -7007,7 +6914,7 @@
         <v>177</v>
       </c>
       <c r="B171">
-        <v>0.0005813953488372093</v>
+        <v>0.0007262164124909223</v>
       </c>
       <c r="C171">
         <v>1</v>
@@ -7025,7 +6932,7 @@
         <v>0</v>
       </c>
       <c r="H171">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -7033,7 +6940,7 @@
         <v>178</v>
       </c>
       <c r="B172">
-        <v>0.0005813953488372093</v>
+        <v>0.0007262164124909223</v>
       </c>
       <c r="C172">
         <v>1</v>
@@ -7051,7 +6958,7 @@
         <v>0</v>
       </c>
       <c r="H172">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -7059,7 +6966,7 @@
         <v>179</v>
       </c>
       <c r="B173">
-        <v>0.0005813953488372093</v>
+        <v>0.0007262164124909223</v>
       </c>
       <c r="C173">
         <v>1</v>
@@ -7077,7 +6984,7 @@
         <v>0</v>
       </c>
       <c r="H173">
-        <v>370</v>
+        <v>27</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -7085,25 +6992,25 @@
         <v>180</v>
       </c>
       <c r="B174">
-        <v>0.0005813953488372093</v>
+        <v>0.0007262164124909223</v>
       </c>
       <c r="C174">
         <v>1</v>
       </c>
       <c r="D174">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E174">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F174">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G174" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H174">
-        <v>113</v>
+        <v>3</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -7111,25 +7018,25 @@
         <v>181</v>
       </c>
       <c r="B175">
-        <v>0.0005813953488372093</v>
+        <v>0.0007262164124909223</v>
       </c>
       <c r="C175">
         <v>1</v>
       </c>
       <c r="D175">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E175">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F175">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G175" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H175">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -7137,7 +7044,7 @@
         <v>182</v>
       </c>
       <c r="B176">
-        <v>0.0005813953488372093</v>
+        <v>0.0007262164124909223</v>
       </c>
       <c r="C176">
         <v>1</v>
@@ -7155,7 +7062,7 @@
         <v>0</v>
       </c>
       <c r="H176">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -7163,7 +7070,7 @@
         <v>183</v>
       </c>
       <c r="B177">
-        <v>0.0005813953488372093</v>
+        <v>0.0007262164124909223</v>
       </c>
       <c r="C177">
         <v>1</v>
@@ -7181,7 +7088,7 @@
         <v>0</v>
       </c>
       <c r="H177">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -7189,7 +7096,7 @@
         <v>184</v>
       </c>
       <c r="B178">
-        <v>0.0005813953488372093</v>
+        <v>0.0007262164124909223</v>
       </c>
       <c r="C178">
         <v>1</v>
@@ -7207,7 +7114,7 @@
         <v>0</v>
       </c>
       <c r="H178">
-        <v>384</v>
+        <v>30</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -7215,7 +7122,7 @@
         <v>185</v>
       </c>
       <c r="B179">
-        <v>0.0005813953488372093</v>
+        <v>0.0007262164124909223</v>
       </c>
       <c r="C179">
         <v>1</v>
@@ -7233,7 +7140,7 @@
         <v>0</v>
       </c>
       <c r="H179">
-        <v>3</v>
+        <v>225</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -7241,7 +7148,7 @@
         <v>186</v>
       </c>
       <c r="B180">
-        <v>0.0005813953488372093</v>
+        <v>0.0007262164124909223</v>
       </c>
       <c r="C180">
         <v>1</v>
@@ -7259,7 +7166,7 @@
         <v>0</v>
       </c>
       <c r="H180">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -7267,7 +7174,7 @@
         <v>187</v>
       </c>
       <c r="B181">
-        <v>0.0005813953488372093</v>
+        <v>0.0007262164124909223</v>
       </c>
       <c r="C181">
         <v>1</v>
@@ -7285,7 +7192,7 @@
         <v>0</v>
       </c>
       <c r="H181">
-        <v>1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -7293,7 +7200,7 @@
         <v>188</v>
       </c>
       <c r="B182">
-        <v>0.0005813953488372093</v>
+        <v>0.0007262164124909223</v>
       </c>
       <c r="C182">
         <v>1</v>
@@ -7311,7 +7218,7 @@
         <v>0</v>
       </c>
       <c r="H182">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -7319,7 +7226,7 @@
         <v>189</v>
       </c>
       <c r="B183">
-        <v>0.0005813953488372093</v>
+        <v>0.0007262164124909223</v>
       </c>
       <c r="C183">
         <v>1</v>
@@ -7337,7 +7244,7 @@
         <v>0</v>
       </c>
       <c r="H183">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -7345,25 +7252,25 @@
         <v>190</v>
       </c>
       <c r="B184">
-        <v>0.0005813953488372093</v>
+        <v>0.0007262164124909223</v>
       </c>
       <c r="C184">
         <v>1</v>
       </c>
       <c r="D184">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E184">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="F184">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="G184" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H184">
-        <v>1</v>
+        <v>165</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -7371,7 +7278,7 @@
         <v>191</v>
       </c>
       <c r="B185">
-        <v>0.0005813953488372093</v>
+        <v>0.0007262164124909223</v>
       </c>
       <c r="C185">
         <v>1</v>
@@ -7389,7 +7296,7 @@
         <v>0</v>
       </c>
       <c r="H185">
-        <v>3</v>
+        <v>16</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -7397,7 +7304,7 @@
         <v>192</v>
       </c>
       <c r="B186">
-        <v>0.0005813953488372093</v>
+        <v>0.0007262164124909223</v>
       </c>
       <c r="C186">
         <v>1</v>
@@ -7415,7 +7322,7 @@
         <v>0</v>
       </c>
       <c r="H186">
-        <v>5</v>
+        <v>28</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -7423,7 +7330,7 @@
         <v>193</v>
       </c>
       <c r="B187">
-        <v>0.0005813953488372093</v>
+        <v>0.0007262164124909223</v>
       </c>
       <c r="C187">
         <v>1</v>
@@ -7441,7 +7348,7 @@
         <v>0</v>
       </c>
       <c r="H187">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -7449,7 +7356,7 @@
         <v>194</v>
       </c>
       <c r="B188">
-        <v>0.0005813953488372093</v>
+        <v>0.0007262164124909223</v>
       </c>
       <c r="C188">
         <v>1</v>
@@ -7467,7 +7374,7 @@
         <v>0</v>
       </c>
       <c r="H188">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -7475,7 +7382,7 @@
         <v>195</v>
       </c>
       <c r="B189">
-        <v>0.0005813953488372093</v>
+        <v>0.0007262164124909223</v>
       </c>
       <c r="C189">
         <v>1</v>
@@ -7493,7 +7400,7 @@
         <v>0</v>
       </c>
       <c r="H189">
-        <v>11</v>
+        <v>198</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -7501,7 +7408,7 @@
         <v>196</v>
       </c>
       <c r="B190">
-        <v>0.0005813953488372093</v>
+        <v>0.0007262164124909223</v>
       </c>
       <c r="C190">
         <v>1</v>
@@ -7519,7 +7426,7 @@
         <v>0</v>
       </c>
       <c r="H190">
-        <v>6</v>
+        <v>40</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -7527,7 +7434,7 @@
         <v>197</v>
       </c>
       <c r="B191">
-        <v>0.0005813953488372093</v>
+        <v>0.0007262164124909223</v>
       </c>
       <c r="C191">
         <v>1</v>
@@ -7545,7 +7452,7 @@
         <v>0</v>
       </c>
       <c r="H191">
-        <v>11</v>
+        <v>29</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -7553,7 +7460,7 @@
         <v>198</v>
       </c>
       <c r="B192">
-        <v>0.0005813953488372093</v>
+        <v>0.0007262164124909223</v>
       </c>
       <c r="C192">
         <v>1</v>
@@ -7571,7 +7478,7 @@
         <v>0</v>
       </c>
       <c r="H192">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -7579,7 +7486,7 @@
         <v>199</v>
       </c>
       <c r="B193">
-        <v>0.0005813953488372093</v>
+        <v>0.0007262164124909223</v>
       </c>
       <c r="C193">
         <v>1</v>
@@ -7597,7 +7504,7 @@
         <v>0</v>
       </c>
       <c r="H193">
-        <v>1</v>
+        <v>27</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -7605,25 +7512,25 @@
         <v>200</v>
       </c>
       <c r="B194">
-        <v>0.0005813953488372093</v>
+        <v>0.0007262164124909223</v>
       </c>
       <c r="C194">
         <v>1</v>
       </c>
       <c r="D194">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E194">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F194">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G194" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H194">
-        <v>710</v>
+        <v>18</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -7631,7 +7538,7 @@
         <v>201</v>
       </c>
       <c r="B195">
-        <v>0.0005813953488372093</v>
+        <v>0.0007262164124909223</v>
       </c>
       <c r="C195">
         <v>1</v>
@@ -7649,7 +7556,7 @@
         <v>0</v>
       </c>
       <c r="H195">
-        <v>167</v>
+        <v>39</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -7657,7 +7564,7 @@
         <v>202</v>
       </c>
       <c r="B196">
-        <v>0.0005813953488372093</v>
+        <v>0.0007262164124909223</v>
       </c>
       <c r="C196">
         <v>1</v>
@@ -7675,7 +7582,7 @@
         <v>0</v>
       </c>
       <c r="H196">
-        <v>212</v>
+        <v>43</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -7683,7 +7590,7 @@
         <v>203</v>
       </c>
       <c r="B197">
-        <v>0.0005813953488372093</v>
+        <v>0.0007262164124909223</v>
       </c>
       <c r="C197">
         <v>1</v>
@@ -7701,7 +7608,7 @@
         <v>0</v>
       </c>
       <c r="H197">
-        <v>2</v>
+        <v>57</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -7709,7 +7616,7 @@
         <v>204</v>
       </c>
       <c r="B198">
-        <v>0.0005813953488372093</v>
+        <v>0.0007262164124909223</v>
       </c>
       <c r="C198">
         <v>1</v>
@@ -7727,7 +7634,7 @@
         <v>0</v>
       </c>
       <c r="H198">
-        <v>82</v>
+        <v>21</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -7735,7 +7642,7 @@
         <v>205</v>
       </c>
       <c r="B199">
-        <v>0.0005813953488372093</v>
+        <v>0.0007262164124909223</v>
       </c>
       <c r="C199">
         <v>1</v>
@@ -7753,7 +7660,7 @@
         <v>0</v>
       </c>
       <c r="H199">
-        <v>29</v>
+        <v>74</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -7761,25 +7668,25 @@
         <v>206</v>
       </c>
       <c r="B200">
-        <v>0.0005813953488372093</v>
+        <v>0.0007262164124909223</v>
       </c>
       <c r="C200">
         <v>1</v>
       </c>
       <c r="D200">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E200">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F200">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G200" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H200">
-        <v>37</v>
+        <v>129</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -7787,7 +7694,7 @@
         <v>207</v>
       </c>
       <c r="B201">
-        <v>0.0005813953488372093</v>
+        <v>0.0007262164124909223</v>
       </c>
       <c r="C201">
         <v>1</v>
@@ -7805,7 +7712,7 @@
         <v>0</v>
       </c>
       <c r="H201">
-        <v>3</v>
+        <v>128</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -7813,7 +7720,7 @@
         <v>208</v>
       </c>
       <c r="B202">
-        <v>0.0005813953488372093</v>
+        <v>0.0007262164124909223</v>
       </c>
       <c r="C202">
         <v>1</v>
@@ -7831,7 +7738,7 @@
         <v>0</v>
       </c>
       <c r="H202">
-        <v>11</v>
+        <v>136</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -7839,7 +7746,7 @@
         <v>209</v>
       </c>
       <c r="B203">
-        <v>0.0005813953488372093</v>
+        <v>0.0007262164124909223</v>
       </c>
       <c r="C203">
         <v>1</v>
@@ -7857,1931 +7764,7 @@
         <v>0</v>
       </c>
       <c r="H203">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="204" spans="1:8">
-      <c r="A204" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="B204">
-        <v>0.0005813953488372093</v>
-      </c>
-      <c r="C204">
-        <v>1</v>
-      </c>
-      <c r="D204">
-        <v>2</v>
-      </c>
-      <c r="E204">
-        <v>0.5</v>
-      </c>
-      <c r="F204">
-        <v>0.5</v>
-      </c>
-      <c r="G204" t="b">
-        <v>1</v>
-      </c>
-      <c r="H204">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="205" spans="1:8">
-      <c r="A205" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="B205">
-        <v>0.0005813953488372093</v>
-      </c>
-      <c r="C205">
-        <v>1</v>
-      </c>
-      <c r="D205">
-        <v>1</v>
-      </c>
-      <c r="E205">
-        <v>1</v>
-      </c>
-      <c r="F205">
-        <v>0</v>
-      </c>
-      <c r="G205" t="b">
-        <v>0</v>
-      </c>
-      <c r="H205">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="206" spans="1:8">
-      <c r="A206" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="B206">
-        <v>0.0005813953488372093</v>
-      </c>
-      <c r="C206">
-        <v>1</v>
-      </c>
-      <c r="D206">
-        <v>1</v>
-      </c>
-      <c r="E206">
-        <v>1</v>
-      </c>
-      <c r="F206">
-        <v>0</v>
-      </c>
-      <c r="G206" t="b">
-        <v>0</v>
-      </c>
-      <c r="H206">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="207" spans="1:8">
-      <c r="A207" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="B207">
-        <v>0.0005813953488372093</v>
-      </c>
-      <c r="C207">
-        <v>1</v>
-      </c>
-      <c r="D207">
-        <v>1</v>
-      </c>
-      <c r="E207">
-        <v>1</v>
-      </c>
-      <c r="F207">
-        <v>0</v>
-      </c>
-      <c r="G207" t="b">
-        <v>0</v>
-      </c>
-      <c r="H207">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="208" spans="1:8">
-      <c r="A208" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="B208">
-        <v>0.0005813953488372093</v>
-      </c>
-      <c r="C208">
-        <v>1</v>
-      </c>
-      <c r="D208">
-        <v>1</v>
-      </c>
-      <c r="E208">
-        <v>1</v>
-      </c>
-      <c r="F208">
-        <v>0</v>
-      </c>
-      <c r="G208" t="b">
-        <v>0</v>
-      </c>
-      <c r="H208">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="209" spans="1:8">
-      <c r="A209" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="B209">
-        <v>0.0005813953488372093</v>
-      </c>
-      <c r="C209">
-        <v>1</v>
-      </c>
-      <c r="D209">
-        <v>1</v>
-      </c>
-      <c r="E209">
-        <v>1</v>
-      </c>
-      <c r="F209">
-        <v>0</v>
-      </c>
-      <c r="G209" t="b">
-        <v>0</v>
-      </c>
-      <c r="H209">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="210" spans="1:8">
-      <c r="A210" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="B210">
-        <v>0.0005813953488372093</v>
-      </c>
-      <c r="C210">
-        <v>1</v>
-      </c>
-      <c r="D210">
-        <v>1</v>
-      </c>
-      <c r="E210">
-        <v>1</v>
-      </c>
-      <c r="F210">
-        <v>0</v>
-      </c>
-      <c r="G210" t="b">
-        <v>0</v>
-      </c>
-      <c r="H210">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="211" spans="1:8">
-      <c r="A211" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="B211">
-        <v>0.0005813953488372093</v>
-      </c>
-      <c r="C211">
-        <v>1</v>
-      </c>
-      <c r="D211">
-        <v>1</v>
-      </c>
-      <c r="E211">
-        <v>1</v>
-      </c>
-      <c r="F211">
-        <v>0</v>
-      </c>
-      <c r="G211" t="b">
-        <v>0</v>
-      </c>
-      <c r="H211">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="212" spans="1:8">
-      <c r="A212" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="B212">
-        <v>0.0005813953488372093</v>
-      </c>
-      <c r="C212">
-        <v>1</v>
-      </c>
-      <c r="D212">
-        <v>1</v>
-      </c>
-      <c r="E212">
-        <v>1</v>
-      </c>
-      <c r="F212">
-        <v>0</v>
-      </c>
-      <c r="G212" t="b">
-        <v>0</v>
-      </c>
-      <c r="H212">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="213" spans="1:8">
-      <c r="A213" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="B213">
-        <v>0.0005813953488372093</v>
-      </c>
-      <c r="C213">
-        <v>1</v>
-      </c>
-      <c r="D213">
-        <v>1</v>
-      </c>
-      <c r="E213">
-        <v>1</v>
-      </c>
-      <c r="F213">
-        <v>0</v>
-      </c>
-      <c r="G213" t="b">
-        <v>0</v>
-      </c>
-      <c r="H213">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="214" spans="1:8">
-      <c r="A214" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B214">
-        <v>0.0005813953488372093</v>
-      </c>
-      <c r="C214">
-        <v>1</v>
-      </c>
-      <c r="D214">
-        <v>1</v>
-      </c>
-      <c r="E214">
-        <v>1</v>
-      </c>
-      <c r="F214">
-        <v>0</v>
-      </c>
-      <c r="G214" t="b">
-        <v>0</v>
-      </c>
-      <c r="H214">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="215" spans="1:8">
-      <c r="A215" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="B215">
-        <v>0.0005813953488372093</v>
-      </c>
-      <c r="C215">
-        <v>1</v>
-      </c>
-      <c r="D215">
-        <v>1</v>
-      </c>
-      <c r="E215">
-        <v>1</v>
-      </c>
-      <c r="F215">
-        <v>0</v>
-      </c>
-      <c r="G215" t="b">
-        <v>0</v>
-      </c>
-      <c r="H215">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="216" spans="1:8">
-      <c r="A216" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="B216">
-        <v>0.0005813953488372093</v>
-      </c>
-      <c r="C216">
-        <v>1</v>
-      </c>
-      <c r="D216">
-        <v>1</v>
-      </c>
-      <c r="E216">
-        <v>1</v>
-      </c>
-      <c r="F216">
-        <v>0</v>
-      </c>
-      <c r="G216" t="b">
-        <v>0</v>
-      </c>
-      <c r="H216">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="217" spans="1:8">
-      <c r="A217" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="B217">
-        <v>0.0005813953488372093</v>
-      </c>
-      <c r="C217">
-        <v>1</v>
-      </c>
-      <c r="D217">
-        <v>1</v>
-      </c>
-      <c r="E217">
-        <v>1</v>
-      </c>
-      <c r="F217">
-        <v>0</v>
-      </c>
-      <c r="G217" t="b">
-        <v>0</v>
-      </c>
-      <c r="H217">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="218" spans="1:8">
-      <c r="A218" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="B218">
-        <v>0.0005813953488372093</v>
-      </c>
-      <c r="C218">
-        <v>1</v>
-      </c>
-      <c r="D218">
-        <v>1</v>
-      </c>
-      <c r="E218">
-        <v>1</v>
-      </c>
-      <c r="F218">
-        <v>0</v>
-      </c>
-      <c r="G218" t="b">
-        <v>0</v>
-      </c>
-      <c r="H218">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="219" spans="1:8">
-      <c r="A219" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="B219">
-        <v>0.0005813953488372093</v>
-      </c>
-      <c r="C219">
-        <v>1</v>
-      </c>
-      <c r="D219">
-        <v>1</v>
-      </c>
-      <c r="E219">
-        <v>1</v>
-      </c>
-      <c r="F219">
-        <v>0</v>
-      </c>
-      <c r="G219" t="b">
-        <v>0</v>
-      </c>
-      <c r="H219">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="220" spans="1:8">
-      <c r="A220" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="B220">
-        <v>0.0005813953488372093</v>
-      </c>
-      <c r="C220">
-        <v>1</v>
-      </c>
-      <c r="D220">
-        <v>1</v>
-      </c>
-      <c r="E220">
-        <v>1</v>
-      </c>
-      <c r="F220">
-        <v>0</v>
-      </c>
-      <c r="G220" t="b">
-        <v>0</v>
-      </c>
-      <c r="H220">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="221" spans="1:8">
-      <c r="A221" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="B221">
-        <v>0.0005813953488372093</v>
-      </c>
-      <c r="C221">
-        <v>1</v>
-      </c>
-      <c r="D221">
-        <v>1</v>
-      </c>
-      <c r="E221">
-        <v>1</v>
-      </c>
-      <c r="F221">
-        <v>0</v>
-      </c>
-      <c r="G221" t="b">
-        <v>0</v>
-      </c>
-      <c r="H221">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="222" spans="1:8">
-      <c r="A222" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="B222">
-        <v>0.0005813953488372093</v>
-      </c>
-      <c r="C222">
-        <v>1</v>
-      </c>
-      <c r="D222">
-        <v>1</v>
-      </c>
-      <c r="E222">
-        <v>1</v>
-      </c>
-      <c r="F222">
-        <v>0</v>
-      </c>
-      <c r="G222" t="b">
-        <v>0</v>
-      </c>
-      <c r="H222">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="223" spans="1:8">
-      <c r="A223" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="B223">
-        <v>0.0005813953488372093</v>
-      </c>
-      <c r="C223">
-        <v>1</v>
-      </c>
-      <c r="D223">
-        <v>1</v>
-      </c>
-      <c r="E223">
-        <v>1</v>
-      </c>
-      <c r="F223">
-        <v>0</v>
-      </c>
-      <c r="G223" t="b">
-        <v>0</v>
-      </c>
-      <c r="H223">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="224" spans="1:8">
-      <c r="A224" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="B224">
-        <v>0.0005813953488372093</v>
-      </c>
-      <c r="C224">
-        <v>1</v>
-      </c>
-      <c r="D224">
-        <v>1</v>
-      </c>
-      <c r="E224">
-        <v>1</v>
-      </c>
-      <c r="F224">
-        <v>0</v>
-      </c>
-      <c r="G224" t="b">
-        <v>0</v>
-      </c>
-      <c r="H224">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="225" spans="1:8">
-      <c r="A225" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="B225">
-        <v>0.0005813953488372093</v>
-      </c>
-      <c r="C225">
-        <v>1</v>
-      </c>
-      <c r="D225">
-        <v>1</v>
-      </c>
-      <c r="E225">
-        <v>1</v>
-      </c>
-      <c r="F225">
-        <v>0</v>
-      </c>
-      <c r="G225" t="b">
-        <v>0</v>
-      </c>
-      <c r="H225">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="226" spans="1:8">
-      <c r="A226" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="B226">
-        <v>0.0005813953488372093</v>
-      </c>
-      <c r="C226">
-        <v>1</v>
-      </c>
-      <c r="D226">
-        <v>1</v>
-      </c>
-      <c r="E226">
-        <v>1</v>
-      </c>
-      <c r="F226">
-        <v>0</v>
-      </c>
-      <c r="G226" t="b">
-        <v>0</v>
-      </c>
-      <c r="H226">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="227" spans="1:8">
-      <c r="A227" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="B227">
-        <v>0.0005813953488372093</v>
-      </c>
-      <c r="C227">
-        <v>1</v>
-      </c>
-      <c r="D227">
-        <v>1</v>
-      </c>
-      <c r="E227">
-        <v>1</v>
-      </c>
-      <c r="F227">
-        <v>0</v>
-      </c>
-      <c r="G227" t="b">
-        <v>0</v>
-      </c>
-      <c r="H227">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="228" spans="1:8">
-      <c r="A228" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="B228">
-        <v>0.0005813953488372093</v>
-      </c>
-      <c r="C228">
-        <v>1</v>
-      </c>
-      <c r="D228">
-        <v>1</v>
-      </c>
-      <c r="E228">
-        <v>1</v>
-      </c>
-      <c r="F228">
-        <v>0</v>
-      </c>
-      <c r="G228" t="b">
-        <v>0</v>
-      </c>
-      <c r="H228">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="229" spans="1:8">
-      <c r="A229" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="B229">
-        <v>0.0005813953488372093</v>
-      </c>
-      <c r="C229">
-        <v>1</v>
-      </c>
-      <c r="D229">
-        <v>1</v>
-      </c>
-      <c r="E229">
-        <v>1</v>
-      </c>
-      <c r="F229">
-        <v>0</v>
-      </c>
-      <c r="G229" t="b">
-        <v>0</v>
-      </c>
-      <c r="H229">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="230" spans="1:8">
-      <c r="A230" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="B230">
-        <v>0.0005813953488372093</v>
-      </c>
-      <c r="C230">
-        <v>1</v>
-      </c>
-      <c r="D230">
-        <v>1</v>
-      </c>
-      <c r="E230">
-        <v>1</v>
-      </c>
-      <c r="F230">
-        <v>0</v>
-      </c>
-      <c r="G230" t="b">
-        <v>0</v>
-      </c>
-      <c r="H230">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="231" spans="1:8">
-      <c r="A231" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="B231">
-        <v>0.0005813953488372093</v>
-      </c>
-      <c r="C231">
-        <v>1</v>
-      </c>
-      <c r="D231">
-        <v>1</v>
-      </c>
-      <c r="E231">
-        <v>1</v>
-      </c>
-      <c r="F231">
-        <v>0</v>
-      </c>
-      <c r="G231" t="b">
-        <v>0</v>
-      </c>
-      <c r="H231">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="232" spans="1:8">
-      <c r="A232" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="B232">
-        <v>0.0005813953488372093</v>
-      </c>
-      <c r="C232">
-        <v>1</v>
-      </c>
-      <c r="D232">
-        <v>1</v>
-      </c>
-      <c r="E232">
-        <v>1</v>
-      </c>
-      <c r="F232">
-        <v>0</v>
-      </c>
-      <c r="G232" t="b">
-        <v>0</v>
-      </c>
-      <c r="H232">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="233" spans="1:8">
-      <c r="A233" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="B233">
-        <v>0.0005813953488372093</v>
-      </c>
-      <c r="C233">
-        <v>1</v>
-      </c>
-      <c r="D233">
-        <v>1</v>
-      </c>
-      <c r="E233">
-        <v>1</v>
-      </c>
-      <c r="F233">
-        <v>0</v>
-      </c>
-      <c r="G233" t="b">
-        <v>0</v>
-      </c>
-      <c r="H233">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="234" spans="1:8">
-      <c r="A234" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="B234">
-        <v>0.0005813953488372093</v>
-      </c>
-      <c r="C234">
-        <v>1</v>
-      </c>
-      <c r="D234">
-        <v>1</v>
-      </c>
-      <c r="E234">
-        <v>1</v>
-      </c>
-      <c r="F234">
-        <v>0</v>
-      </c>
-      <c r="G234" t="b">
-        <v>0</v>
-      </c>
-      <c r="H234">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="235" spans="1:8">
-      <c r="A235" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="B235">
-        <v>0.0005813953488372093</v>
-      </c>
-      <c r="C235">
-        <v>1</v>
-      </c>
-      <c r="D235">
-        <v>1</v>
-      </c>
-      <c r="E235">
-        <v>1</v>
-      </c>
-      <c r="F235">
-        <v>0</v>
-      </c>
-      <c r="G235" t="b">
-        <v>0</v>
-      </c>
-      <c r="H235">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="236" spans="1:8">
-      <c r="A236" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="B236">
-        <v>0.0005813953488372093</v>
-      </c>
-      <c r="C236">
-        <v>1</v>
-      </c>
-      <c r="D236">
-        <v>1</v>
-      </c>
-      <c r="E236">
-        <v>1</v>
-      </c>
-      <c r="F236">
-        <v>0</v>
-      </c>
-      <c r="G236" t="b">
-        <v>0</v>
-      </c>
-      <c r="H236">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="237" spans="1:8">
-      <c r="A237" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="B237">
-        <v>0.0005813953488372093</v>
-      </c>
-      <c r="C237">
-        <v>1</v>
-      </c>
-      <c r="D237">
-        <v>1</v>
-      </c>
-      <c r="E237">
-        <v>1</v>
-      </c>
-      <c r="F237">
-        <v>0</v>
-      </c>
-      <c r="G237" t="b">
-        <v>0</v>
-      </c>
-      <c r="H237">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="238" spans="1:8">
-      <c r="A238" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="B238">
-        <v>0.0005813953488372093</v>
-      </c>
-      <c r="C238">
-        <v>1</v>
-      </c>
-      <c r="D238">
-        <v>1</v>
-      </c>
-      <c r="E238">
-        <v>1</v>
-      </c>
-      <c r="F238">
-        <v>0</v>
-      </c>
-      <c r="G238" t="b">
-        <v>0</v>
-      </c>
-      <c r="H238">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="239" spans="1:8">
-      <c r="A239" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="B239">
-        <v>0.0005813953488372093</v>
-      </c>
-      <c r="C239">
-        <v>1</v>
-      </c>
-      <c r="D239">
-        <v>1</v>
-      </c>
-      <c r="E239">
-        <v>1</v>
-      </c>
-      <c r="F239">
-        <v>0</v>
-      </c>
-      <c r="G239" t="b">
-        <v>0</v>
-      </c>
-      <c r="H239">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="240" spans="1:8">
-      <c r="A240" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="B240">
-        <v>0.0005813953488372093</v>
-      </c>
-      <c r="C240">
-        <v>1</v>
-      </c>
-      <c r="D240">
-        <v>1</v>
-      </c>
-      <c r="E240">
-        <v>1</v>
-      </c>
-      <c r="F240">
-        <v>0</v>
-      </c>
-      <c r="G240" t="b">
-        <v>0</v>
-      </c>
-      <c r="H240">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="241" spans="1:8">
-      <c r="A241" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="B241">
-        <v>0.0005813953488372093</v>
-      </c>
-      <c r="C241">
-        <v>1</v>
-      </c>
-      <c r="D241">
-        <v>1</v>
-      </c>
-      <c r="E241">
-        <v>1</v>
-      </c>
-      <c r="F241">
-        <v>0</v>
-      </c>
-      <c r="G241" t="b">
-        <v>0</v>
-      </c>
-      <c r="H241">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="242" spans="1:8">
-      <c r="A242" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="B242">
-        <v>0.0005813953488372093</v>
-      </c>
-      <c r="C242">
-        <v>1</v>
-      </c>
-      <c r="D242">
-        <v>1</v>
-      </c>
-      <c r="E242">
-        <v>1</v>
-      </c>
-      <c r="F242">
-        <v>0</v>
-      </c>
-      <c r="G242" t="b">
-        <v>0</v>
-      </c>
-      <c r="H242">
-        <v>1735</v>
-      </c>
-    </row>
-    <row r="243" spans="1:8">
-      <c r="A243" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="B243">
-        <v>0.0005813953488372093</v>
-      </c>
-      <c r="C243">
-        <v>1</v>
-      </c>
-      <c r="D243">
-        <v>1</v>
-      </c>
-      <c r="E243">
-        <v>1</v>
-      </c>
-      <c r="F243">
-        <v>0</v>
-      </c>
-      <c r="G243" t="b">
-        <v>0</v>
-      </c>
-      <c r="H243">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="244" spans="1:8">
-      <c r="A244" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="B244">
-        <v>0.0005813953488372093</v>
-      </c>
-      <c r="C244">
-        <v>1</v>
-      </c>
-      <c r="D244">
-        <v>1</v>
-      </c>
-      <c r="E244">
-        <v>1</v>
-      </c>
-      <c r="F244">
-        <v>0</v>
-      </c>
-      <c r="G244" t="b">
-        <v>0</v>
-      </c>
-      <c r="H244">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="245" spans="1:8">
-      <c r="A245" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="B245">
-        <v>0.0005813953488372093</v>
-      </c>
-      <c r="C245">
-        <v>1</v>
-      </c>
-      <c r="D245">
-        <v>1</v>
-      </c>
-      <c r="E245">
-        <v>1</v>
-      </c>
-      <c r="F245">
-        <v>0</v>
-      </c>
-      <c r="G245" t="b">
-        <v>0</v>
-      </c>
-      <c r="H245">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="246" spans="1:8">
-      <c r="A246" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="B246">
-        <v>0.0005813953488372093</v>
-      </c>
-      <c r="C246">
-        <v>1</v>
-      </c>
-      <c r="D246">
-        <v>1</v>
-      </c>
-      <c r="E246">
-        <v>1</v>
-      </c>
-      <c r="F246">
-        <v>0</v>
-      </c>
-      <c r="G246" t="b">
-        <v>0</v>
-      </c>
-      <c r="H246">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="247" spans="1:8">
-      <c r="A247" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="B247">
-        <v>0.0005813953488372093</v>
-      </c>
-      <c r="C247">
-        <v>1</v>
-      </c>
-      <c r="D247">
-        <v>1</v>
-      </c>
-      <c r="E247">
-        <v>1</v>
-      </c>
-      <c r="F247">
-        <v>0</v>
-      </c>
-      <c r="G247" t="b">
-        <v>0</v>
-      </c>
-      <c r="H247">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="248" spans="1:8">
-      <c r="A248" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="B248">
-        <v>0.0005813953488372093</v>
-      </c>
-      <c r="C248">
-        <v>1</v>
-      </c>
-      <c r="D248">
-        <v>1</v>
-      </c>
-      <c r="E248">
-        <v>1</v>
-      </c>
-      <c r="F248">
-        <v>0</v>
-      </c>
-      <c r="G248" t="b">
-        <v>0</v>
-      </c>
-      <c r="H248">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="249" spans="1:8">
-      <c r="A249" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="B249">
-        <v>0.0005813953488372093</v>
-      </c>
-      <c r="C249">
-        <v>1</v>
-      </c>
-      <c r="D249">
-        <v>1</v>
-      </c>
-      <c r="E249">
-        <v>1</v>
-      </c>
-      <c r="F249">
-        <v>0</v>
-      </c>
-      <c r="G249" t="b">
-        <v>0</v>
-      </c>
-      <c r="H249">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="250" spans="1:8">
-      <c r="A250" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="B250">
-        <v>0.0005813953488372093</v>
-      </c>
-      <c r="C250">
-        <v>1</v>
-      </c>
-      <c r="D250">
-        <v>1</v>
-      </c>
-      <c r="E250">
-        <v>1</v>
-      </c>
-      <c r="F250">
-        <v>0</v>
-      </c>
-      <c r="G250" t="b">
-        <v>0</v>
-      </c>
-      <c r="H250">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="251" spans="1:8">
-      <c r="A251" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="B251">
-        <v>0.0005813953488372093</v>
-      </c>
-      <c r="C251">
-        <v>1</v>
-      </c>
-      <c r="D251">
-        <v>1</v>
-      </c>
-      <c r="E251">
-        <v>1</v>
-      </c>
-      <c r="F251">
-        <v>0</v>
-      </c>
-      <c r="G251" t="b">
-        <v>0</v>
-      </c>
-      <c r="H251">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="252" spans="1:8">
-      <c r="A252" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="B252">
-        <v>0.0005813953488372093</v>
-      </c>
-      <c r="C252">
-        <v>1</v>
-      </c>
-      <c r="D252">
-        <v>1</v>
-      </c>
-      <c r="E252">
-        <v>1</v>
-      </c>
-      <c r="F252">
-        <v>0</v>
-      </c>
-      <c r="G252" t="b">
-        <v>0</v>
-      </c>
-      <c r="H252">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="253" spans="1:8">
-      <c r="A253" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="B253">
-        <v>0.0005813953488372093</v>
-      </c>
-      <c r="C253">
-        <v>1</v>
-      </c>
-      <c r="D253">
-        <v>1</v>
-      </c>
-      <c r="E253">
-        <v>1</v>
-      </c>
-      <c r="F253">
-        <v>0</v>
-      </c>
-      <c r="G253" t="b">
-        <v>0</v>
-      </c>
-      <c r="H253">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="254" spans="1:8">
-      <c r="A254" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="B254">
-        <v>0.0005813953488372093</v>
-      </c>
-      <c r="C254">
-        <v>1</v>
-      </c>
-      <c r="D254">
-        <v>1</v>
-      </c>
-      <c r="E254">
-        <v>1</v>
-      </c>
-      <c r="F254">
-        <v>0</v>
-      </c>
-      <c r="G254" t="b">
-        <v>0</v>
-      </c>
-      <c r="H254">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="255" spans="1:8">
-      <c r="A255" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="B255">
-        <v>0.0005813953488372093</v>
-      </c>
-      <c r="C255">
-        <v>1</v>
-      </c>
-      <c r="D255">
-        <v>1</v>
-      </c>
-      <c r="E255">
-        <v>1</v>
-      </c>
-      <c r="F255">
-        <v>0</v>
-      </c>
-      <c r="G255" t="b">
-        <v>0</v>
-      </c>
-      <c r="H255">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="256" spans="1:8">
-      <c r="A256" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="B256">
-        <v>0.0005813953488372093</v>
-      </c>
-      <c r="C256">
-        <v>1</v>
-      </c>
-      <c r="D256">
-        <v>1</v>
-      </c>
-      <c r="E256">
-        <v>1</v>
-      </c>
-      <c r="F256">
-        <v>0</v>
-      </c>
-      <c r="G256" t="b">
-        <v>0</v>
-      </c>
-      <c r="H256">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="257" spans="1:8">
-      <c r="A257" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="B257">
-        <v>0.0005813953488372093</v>
-      </c>
-      <c r="C257">
-        <v>1</v>
-      </c>
-      <c r="D257">
-        <v>1</v>
-      </c>
-      <c r="E257">
-        <v>1</v>
-      </c>
-      <c r="F257">
-        <v>0</v>
-      </c>
-      <c r="G257" t="b">
-        <v>0</v>
-      </c>
-      <c r="H257">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="258" spans="1:8">
-      <c r="A258" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="B258">
-        <v>0.0005813953488372093</v>
-      </c>
-      <c r="C258">
-        <v>1</v>
-      </c>
-      <c r="D258">
-        <v>1</v>
-      </c>
-      <c r="E258">
-        <v>1</v>
-      </c>
-      <c r="F258">
-        <v>0</v>
-      </c>
-      <c r="G258" t="b">
-        <v>0</v>
-      </c>
-      <c r="H258">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="259" spans="1:8">
-      <c r="A259" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="B259">
-        <v>0.0005813953488372093</v>
-      </c>
-      <c r="C259">
-        <v>1</v>
-      </c>
-      <c r="D259">
-        <v>1</v>
-      </c>
-      <c r="E259">
-        <v>1</v>
-      </c>
-      <c r="F259">
-        <v>0</v>
-      </c>
-      <c r="G259" t="b">
-        <v>0</v>
-      </c>
-      <c r="H259">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="260" spans="1:8">
-      <c r="A260" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="B260">
-        <v>0.0005813953488372093</v>
-      </c>
-      <c r="C260">
-        <v>1</v>
-      </c>
-      <c r="D260">
-        <v>1</v>
-      </c>
-      <c r="E260">
-        <v>1</v>
-      </c>
-      <c r="F260">
-        <v>0</v>
-      </c>
-      <c r="G260" t="b">
-        <v>0</v>
-      </c>
-      <c r="H260">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="261" spans="1:8">
-      <c r="A261" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="B261">
-        <v>0.0005813953488372093</v>
-      </c>
-      <c r="C261">
-        <v>1</v>
-      </c>
-      <c r="D261">
-        <v>1</v>
-      </c>
-      <c r="E261">
-        <v>1</v>
-      </c>
-      <c r="F261">
-        <v>0</v>
-      </c>
-      <c r="G261" t="b">
-        <v>0</v>
-      </c>
-      <c r="H261">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="262" spans="1:8">
-      <c r="A262" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="B262">
-        <v>0.0005813953488372093</v>
-      </c>
-      <c r="C262">
-        <v>1</v>
-      </c>
-      <c r="D262">
-        <v>1</v>
-      </c>
-      <c r="E262">
-        <v>1</v>
-      </c>
-      <c r="F262">
-        <v>0</v>
-      </c>
-      <c r="G262" t="b">
-        <v>0</v>
-      </c>
-      <c r="H262">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="263" spans="1:8">
-      <c r="A263" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="B263">
-        <v>0.0005813953488372093</v>
-      </c>
-      <c r="C263">
-        <v>1</v>
-      </c>
-      <c r="D263">
-        <v>1</v>
-      </c>
-      <c r="E263">
-        <v>1</v>
-      </c>
-      <c r="F263">
-        <v>0</v>
-      </c>
-      <c r="G263" t="b">
-        <v>0</v>
-      </c>
-      <c r="H263">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="264" spans="1:8">
-      <c r="A264" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="B264">
-        <v>0.0005813953488372093</v>
-      </c>
-      <c r="C264">
-        <v>1</v>
-      </c>
-      <c r="D264">
-        <v>1</v>
-      </c>
-      <c r="E264">
-        <v>1</v>
-      </c>
-      <c r="F264">
-        <v>0</v>
-      </c>
-      <c r="G264" t="b">
-        <v>0</v>
-      </c>
-      <c r="H264">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="265" spans="1:8">
-      <c r="A265" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="B265">
-        <v>0.0005813953488372093</v>
-      </c>
-      <c r="C265">
-        <v>1</v>
-      </c>
-      <c r="D265">
-        <v>1</v>
-      </c>
-      <c r="E265">
-        <v>1</v>
-      </c>
-      <c r="F265">
-        <v>0</v>
-      </c>
-      <c r="G265" t="b">
-        <v>0</v>
-      </c>
-      <c r="H265">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="266" spans="1:8">
-      <c r="A266" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="B266">
-        <v>0.0005813953488372093</v>
-      </c>
-      <c r="C266">
-        <v>1</v>
-      </c>
-      <c r="D266">
-        <v>1</v>
-      </c>
-      <c r="E266">
-        <v>1</v>
-      </c>
-      <c r="F266">
-        <v>0</v>
-      </c>
-      <c r="G266" t="b">
-        <v>0</v>
-      </c>
-      <c r="H266">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="267" spans="1:8">
-      <c r="A267" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="B267">
-        <v>0.0005813953488372093</v>
-      </c>
-      <c r="C267">
-        <v>1</v>
-      </c>
-      <c r="D267">
-        <v>1</v>
-      </c>
-      <c r="E267">
-        <v>1</v>
-      </c>
-      <c r="F267">
-        <v>0</v>
-      </c>
-      <c r="G267" t="b">
-        <v>0</v>
-      </c>
-      <c r="H267">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="268" spans="1:8">
-      <c r="A268" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="B268">
-        <v>0.0005813953488372093</v>
-      </c>
-      <c r="C268">
-        <v>1</v>
-      </c>
-      <c r="D268">
-        <v>1</v>
-      </c>
-      <c r="E268">
-        <v>1</v>
-      </c>
-      <c r="F268">
-        <v>0</v>
-      </c>
-      <c r="G268" t="b">
-        <v>0</v>
-      </c>
-      <c r="H268">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="269" spans="1:8">
-      <c r="A269" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="B269">
-        <v>0.0005813953488372093</v>
-      </c>
-      <c r="C269">
-        <v>1</v>
-      </c>
-      <c r="D269">
-        <v>1</v>
-      </c>
-      <c r="E269">
-        <v>1</v>
-      </c>
-      <c r="F269">
-        <v>0</v>
-      </c>
-      <c r="G269" t="b">
-        <v>0</v>
-      </c>
-      <c r="H269">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="270" spans="1:8">
-      <c r="A270" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="B270">
-        <v>0.0005813953488372093</v>
-      </c>
-      <c r="C270">
-        <v>1</v>
-      </c>
-      <c r="D270">
-        <v>1</v>
-      </c>
-      <c r="E270">
-        <v>1</v>
-      </c>
-      <c r="F270">
-        <v>0</v>
-      </c>
-      <c r="G270" t="b">
-        <v>0</v>
-      </c>
-      <c r="H270">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="271" spans="1:8">
-      <c r="A271" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="B271">
-        <v>0.0005813953488372093</v>
-      </c>
-      <c r="C271">
-        <v>1</v>
-      </c>
-      <c r="D271">
-        <v>1</v>
-      </c>
-      <c r="E271">
-        <v>1</v>
-      </c>
-      <c r="F271">
-        <v>0</v>
-      </c>
-      <c r="G271" t="b">
-        <v>0</v>
-      </c>
-      <c r="H271">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="272" spans="1:8">
-      <c r="A272" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="B272">
-        <v>0.0005813953488372093</v>
-      </c>
-      <c r="C272">
-        <v>1</v>
-      </c>
-      <c r="D272">
-        <v>1</v>
-      </c>
-      <c r="E272">
-        <v>1</v>
-      </c>
-      <c r="F272">
-        <v>0</v>
-      </c>
-      <c r="G272" t="b">
-        <v>0</v>
-      </c>
-      <c r="H272">
-        <v>1142</v>
-      </c>
-    </row>
-    <row r="273" spans="1:8">
-      <c r="A273" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="B273">
-        <v>0.0005813953488372093</v>
-      </c>
-      <c r="C273">
-        <v>1</v>
-      </c>
-      <c r="D273">
-        <v>1</v>
-      </c>
-      <c r="E273">
-        <v>1</v>
-      </c>
-      <c r="F273">
-        <v>0</v>
-      </c>
-      <c r="G273" t="b">
-        <v>0</v>
-      </c>
-      <c r="H273">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="274" spans="1:8">
-      <c r="A274" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="B274">
-        <v>0.0005813953488372093</v>
-      </c>
-      <c r="C274">
-        <v>1</v>
-      </c>
-      <c r="D274">
-        <v>1</v>
-      </c>
-      <c r="E274">
-        <v>1</v>
-      </c>
-      <c r="F274">
-        <v>0</v>
-      </c>
-      <c r="G274" t="b">
-        <v>0</v>
-      </c>
-      <c r="H274">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="275" spans="1:8">
-      <c r="A275" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="B275">
-        <v>0.0005813953488372093</v>
-      </c>
-      <c r="C275">
-        <v>1</v>
-      </c>
-      <c r="D275">
-        <v>1</v>
-      </c>
-      <c r="E275">
-        <v>1</v>
-      </c>
-      <c r="F275">
-        <v>0</v>
-      </c>
-      <c r="G275" t="b">
-        <v>0</v>
-      </c>
-      <c r="H275">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="276" spans="1:8">
-      <c r="A276" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="B276">
-        <v>0.0005813953488372093</v>
-      </c>
-      <c r="C276">
-        <v>1</v>
-      </c>
-      <c r="D276">
-        <v>1</v>
-      </c>
-      <c r="E276">
-        <v>1</v>
-      </c>
-      <c r="F276">
-        <v>0</v>
-      </c>
-      <c r="G276" t="b">
-        <v>0</v>
-      </c>
-      <c r="H276">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="277" spans="1:8">
-      <c r="A277" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="B277">
-        <v>0.0005813953488372093</v>
-      </c>
-      <c r="C277">
-        <v>1</v>
-      </c>
-      <c r="D277">
-        <v>1</v>
-      </c>
-      <c r="E277">
-        <v>1</v>
-      </c>
-      <c r="F277">
-        <v>0</v>
-      </c>
-      <c r="G277" t="b">
-        <v>0</v>
-      </c>
-      <c r="H277">
-        <v>14</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
